--- a/CCRCs_Clustering/Results/Clustering_results_H2_vdc.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_H2_vdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="244">
   <si>
     <t>leaf</t>
   </si>
@@ -36,25 +36,28 @@
     <t>rules</t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&lt;=0.025" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&gt;0.025" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pg1&lt;=0.3" -&gt; "Qg1&lt;=0.119" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pl2&gt;-0.2" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pl2&lt;=-0.2" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pg1&lt;=0.3" -&gt; "Qg1&gt;0.119" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.359" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pl7&gt;-0.21" -&gt; "Qg1&lt;=0.204" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=0.352" -&gt; "Pg3&lt;=0.189" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.239" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg1&lt;=0.331" -&gt; "Pmmc3&lt;=0.17" -&gt; "Pg1&lt;=0.298" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql2&gt;-0.212" -&gt; "Pmmc3&lt;=0.025" -&gt; "Pg1&lt;=0.3" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=0.352" -&gt; "Pg3&gt;0.189" -&gt; "Pg2&gt;0.171" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Pmmc3&lt;=0.323" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.359" -&gt; "Pl7&gt;-0.21" -&gt; "Qg1&lt;=0.204" -&gt; </t>
@@ -63,31 +66,28 @@
     <t xml:space="preserve">"Qg1&lt;=0.331" -&gt; "Pmmc3&lt;=0.17" -&gt; "Pg1&gt;0.298" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Qg1&lt;=0.294" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=0.352" -&gt; "Pg3&gt;0.189" -&gt; "Pg2&lt;=0.171" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Ql2&gt;-0.15" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.212" -&gt; "Pmmc3&gt;0.025" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pg1&lt;=0.3" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pg1&gt;0.3" -&gt; "Qg3&lt;=0.231" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg1&lt;=0.331" -&gt; "Pmmc3&gt;0.17" -&gt; "Pmmc3&lt;=0.352" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.294" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=0.352" -&gt; "Pg3&gt;0.189" -&gt; "Pg2&lt;=0.171" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Ql2&lt;=-0.15" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.18" -&gt; "Pmmc3&lt;=0.459" -&gt; "Qg3&gt;0.19" -&gt; "Pl5&gt;-0.131" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pl7&gt;-0.21" -&gt; "Qg1&gt;0.204" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.239" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.212" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pg1&gt;0.3" -&gt; "Qg3&lt;=0.231" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.323" -&gt; "Pmmc3&lt;=0.434" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pg1&gt;0.3" -&gt; "Qg3&gt;0.231" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.18" -&gt; "Pmmc3&lt;=0.459" -&gt; "Qg3&gt;0.19" -&gt; "Pl5&lt;=-0.131" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.434" -&gt; "Pmmc3&lt;=0.552" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pl7&lt;=-0.21" -&gt; "Qg1&gt;0.16" -&gt; </t>
@@ -96,61 +96,52 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl7&gt;-0.21" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Pmmc3&lt;=0.323" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&gt;-0.212" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&gt;0.352" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.212" -&gt; "Pmmc3&gt;0.18" -&gt; "Pl9&gt;-0.193" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.212" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pg1&gt;0.3" -&gt; "Qg3&gt;0.231" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Qg1&lt;=0.331" -&gt; "Pmmc3&gt;0.352" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.323" -&gt; "Pmmc3&lt;=0.434" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pl7&lt;=-0.21" -&gt; "Qg1&lt;=0.16" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg1&gt;0.331" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.434" -&gt; "Pmmc3&lt;=0.552" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql7&lt;=-0.097" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.552" -&gt; "Pmmc3&lt;=0.744" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&gt;0.078" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.081" -&gt; "Pg1&lt;=0.385" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.017" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.081" -&gt; "Pg1&gt;0.385" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=0.239" -&gt; "Pl2&gt;-0.307" -&gt; "Ql2&gt;-0.142" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=0.239" -&gt; "Ql2&gt;-0.23" -&gt; "Pl2&gt;-0.189" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.744" -&gt; "Pmmc3&lt;=0.829" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.239" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=0.239" -&gt; "Pl2&gt;-0.307" -&gt; "Ql2&lt;=-0.142" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql7&gt;-0.097" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.552" -&gt; "Pmmc3&lt;=0.744" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=0.239" -&gt; "Pl2&lt;=-0.307" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Ql5&gt;-0.103" -&gt; "Pmmc3&gt;-0.649" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.123" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=0.239" -&gt; "Ql2&gt;-0.23" -&gt; "Pl2&lt;=-0.189" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&lt;=0.078" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=0.239" -&gt; "Ql2&lt;=-0.23" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&gt;-0.138" -&gt; "Pmmc3&gt;-0.649" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.18" -&gt; </t>
@@ -165,31 +156,31 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pmmc3&lt;=-0.452" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql5&lt;=-0.097" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.212" -&gt; "Pmmc3&gt;0.18" -&gt; "Pl9&lt;=-0.193" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&gt;-0.699" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql5&gt;-0.097" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Ql5&gt;-0.103" -&gt; "Pmmc3&lt;=-0.649" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.744" -&gt; "Pmmc3&lt;=0.829" -&gt; </t>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Pl5&lt;=-0.129" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&gt;-0.699" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Pl5&gt;-0.129" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.829" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&gt;-0.138" -&gt; "Pmmc3&lt;=-0.649" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.459" -&gt; "Qg3&gt;0.19" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&gt;0.097" -&gt; "Qg1&lt;=0.318" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Ql7&gt;-0.127" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&lt;=-0.699" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Pl7&gt;-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&lt;=-0.699" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&gt;0.097" -&gt; "Qg1&gt;0.318" -&gt; </t>
@@ -198,145 +189,115 @@
     <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Qg1&gt;0.265" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Ql5&gt;-0.125" -&gt; "Ql5&lt;=-0.103" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&gt;-0.125" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&lt;=0.221" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Ql7&lt;=-0.127" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pl2&gt;-0.229" -&gt; "Pl9&lt;=-0.165" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Pl7&lt;=-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&gt;-0.172" -&gt; "Pl9&lt;=-0.165" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&gt;0.221" -&gt; "Ql2&lt;=-0.198" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.829" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pl2&lt;=-0.31" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pl2&gt;-0.229" -&gt; "Pl9&gt;-0.165" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pl2&lt;=-0.229" -&gt; "Ql7&lt;=-0.143" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&gt;-0.172" -&gt; "Pl9&gt;-0.165" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&lt;=-0.172" -&gt; "Ql7&lt;=-0.143" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&gt;0.221" -&gt; "Ql2&gt;-0.198" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pl2&lt;=-0.229" -&gt; "Ql7&gt;-0.143" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&lt;=-0.172" -&gt; "Ql7&gt;-0.143" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.544" -&gt; "Pmmc3&lt;=-0.398" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.095" -&gt; "Ql2&lt;=-0.212" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.212" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.674" -&gt; "Pmmc3&lt;=-0.544" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&lt;=0.095" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.874" -&gt; "Pmmc3&lt;=-0.674" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Ql2&gt;-0.243" -&gt; "Qg1&lt;=0.105" -&gt; "Pl5&gt;-0.123" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.18" -&gt; "Qg3&lt;=0.19" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.874" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Ql2&gt;-0.243" -&gt; "Qg1&lt;=0.105" -&gt; "Pl5&lt;=-0.123" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; "Ql2&gt;-0.243" -&gt; "Qg1&gt;0.105" -&gt; "Pl9&gt;-0.241" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; "Ql2&gt;-0.243" -&gt; "Qg1&gt;0.105" -&gt; "Pl9&lt;=-0.241" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.18" -&gt; "Ql2&gt;-0.243" -&gt; "Qg1&gt;0.105" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Ql2&lt;=-0.243" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.17" -&gt; "Pl9&gt;-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.209" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.209" -&gt; "Pmmc3&lt;=0.17" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.25" -&gt; "Pl9&lt;=-0.241" -&gt; "Pl2&gt;-0.325" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.25" -&gt; "Pmmc3&lt;=0.17" -&gt; "Pl9&lt;=-0.241" -&gt; "Pl2&gt;-0.325" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.17" -&gt; "Pl9&lt;=-0.241" -&gt; "Pl2&lt;=-0.325" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.17" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.37" -&gt; "Pmmc3&lt;=0.763" -&gt; "Pg3&gt;0.142" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.37" -&gt; "Pg3&gt;0.142" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.763" -&gt; "Pg3&lt;=0.142" -&gt; "Pg1&gt;0.088" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.763" -&gt; "Pg3&lt;=0.142" -&gt; "Pg1&lt;=0.088" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; "Pl9&gt;-0.249" -&gt; "Ql5&gt;-0.102" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; "Pl9&gt;-0.249" -&gt; "Ql5&lt;=-0.102" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.25" -&gt; "Pl9&lt;=-0.249" -&gt; "Ql2&gt;-0.243" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.159" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pl9&gt;-0.249" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.25" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pl9&lt;=-0.249" -&gt; "Ql2&gt;-0.243" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pl9&lt;=-0.249" -&gt; "Ql2&lt;=-0.243" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.37" -&gt; "Pmmc3&lt;=0.763" -&gt; "Qg3&gt;0.142" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.37" -&gt; "Qg3&gt;0.142" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.763" -&gt; "Qg3&lt;=0.142" -&gt; "Pg1&gt;0.088" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.763" -&gt; "Qg3&lt;=0.142" -&gt; "Pg1&lt;=0.088" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.02" -&gt; "Pmmc3&lt;=0.212" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.763" -&gt; "Ql5&gt;-0.12" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.763" -&gt; "Ql5&lt;=-0.12" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.763" -&gt; "Pg2&lt;=0.082" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.763" -&gt; "Pg2&gt;0.082" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.02" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.22" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.63" -&gt; "Qg3&gt;0.142" -&gt; "Qg3&lt;=0.22" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg3&gt;0.22" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg3&gt;0.142" -&gt; "Pg3&lt;=0.22" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.052" -&gt; "Pmmc3&lt;=0.212" -&gt; "Ql5&gt;-0.097" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.63" -&gt; "Qg3&lt;=0.142" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl7&gt;-0.12" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg3&lt;=0.142" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Ql7&gt;-0.09" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.052" -&gt; "Pmmc3&lt;=0.212" -&gt; "Ql5&lt;=-0.097" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl7&lt;=-0.12" -&gt; "Ql7&lt;=-0.135" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl7&lt;=-0.12" -&gt; "Ql7&gt;-0.135" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Ql7&lt;=-0.09" -&gt; "Pl7&lt;=-0.18" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Ql7&lt;=-0.09" -&gt; "Pl7&gt;-0.18" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.736" -&gt; </t>
@@ -345,16 +306,16 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.052" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&lt;=-0.727" -&gt; "Pl7&gt;-0.166" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.107" -&gt; "Pmmc3&gt;-0.727" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pl7&gt;-0.166" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Ql9&lt;=-0.107" -&gt; "Pmmc3&gt;-0.727" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pl7&gt;-0.166" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pl7&lt;=-0.166" -&gt; </t>
+    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&lt;=-0.727" -&gt; "Ql7&gt;-0.125" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&gt;-0.727" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Ql7&gt;-0.125" -&gt; "Pl9&gt;-0.143" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&gt;-0.727" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Ql7&gt;-0.125" -&gt; "Pl9&lt;=-0.143" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Ql7&lt;=-0.125" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.736" -&gt; "Pmmc3&lt;=-0.525" -&gt; </t>
@@ -363,28 +324,49 @@
     <t xml:space="preserve">"Ql9&gt;-0.213" -&gt; "Pmmc3&gt;-0.41" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql9&lt;=-0.238" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.238" -&gt; "Ql9&lt;=-0.213" -&gt; </t>
+    <t xml:space="preserve">"Ql9&lt;=-0.213" -&gt; "Pl9&lt;=-0.317" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&lt;=-0.213" -&gt; "Pl9&gt;-0.317" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.216" -&gt; "Pg1&lt;=0.095" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.216" -&gt; "Pg1&gt;0.095" -&gt; "Pg3&gt;0.217" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl9&lt;=-0.216" -&gt; "Pg1&gt;0.315" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.525" -&gt; "Pmmc3&lt;=-0.31" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.216" -&gt; "Pg1&gt;0.095" -&gt; "Pg3&lt;=0.217" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl9&lt;=-0.216" -&gt; "Pg1&lt;=0.315" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.622" -&gt; "Pl9&lt;=-0.216" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.31" -&gt; "Pmmc3&lt;=-0.083" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Qg3&gt;0.254" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Qg3&lt;=0.254" -&gt; "Pl9&gt;-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Qg3&lt;=0.254" -&gt; "Pl9&lt;=-0.208" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Qg3&lt;=0.254" -&gt; "Pl9&gt;-0.208" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&gt;0.254" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&gt;-0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&lt;=-0.208" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&gt;-0.208" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&lt;=0.012" -&gt; </t>
@@ -396,19 +378,19 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&lt;=-0.225" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.241" -&gt; "Ql9&gt;-0.112" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.149" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&gt;0.012" -&gt; "Pg2&lt;=0.119" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.467" -&gt; "Pl9&gt;-0.241" -&gt; "Ql9&lt;=-0.112" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.467" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&gt;0.012" -&gt; "Pg2&gt;0.119" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.467" -&gt; "Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.241" -&gt; "Ql9&lt;=-0.112" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.467" -&gt; "Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.168" -&gt; "Pl9&lt;=-0.241" -&gt; "Qg2&gt;0.047" -&gt; </t>
@@ -423,37 +405,34 @@
     <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.278" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.305" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pl9&lt;=-0.155" -&gt; "Ql5&lt;=-0.156" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.572" -&gt; "Pl9&lt;=-0.155" -&gt; "Ql5&gt;-0.156" -&gt; "Pl2&lt;=-0.216" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.572" -&gt; "Pl9&lt;=-0.155" -&gt; "Ql5&gt;-0.156" -&gt; "Pl2&gt;-0.216" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pl9&lt;=-0.155" -&gt; "Pl5&lt;=-0.208" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.572" -&gt; "Pl9&lt;=-0.155" -&gt; "Pl5&gt;-0.208" -&gt; "Ql2&lt;=-0.162" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.572" -&gt; "Pl9&lt;=-0.155" -&gt; "Pl5&gt;-0.208" -&gt; "Ql2&gt;-0.162" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.572" -&gt; "Pl9&lt;=-0.155" -&gt; "Ql5&gt;-0.156" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Ql2&lt;=-0.118" -&gt; "Qg3&lt;=0.245" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.572" -&gt; "Pl9&lt;=-0.155" -&gt; "Pl5&gt;-0.208" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Ql2&lt;=-0.118" -&gt; "Pg3&lt;=0.245" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pl9&gt;-0.155" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Ql2&lt;=-0.118" -&gt; "Qg3&gt;0.245" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Ql2&lt;=-0.118" -&gt; "Pg3&gt;0.245" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Ql2&gt;-0.118" -&gt; </t>
@@ -486,7 +465,7 @@
     <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pmmc3&lt;=0.598" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.525" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Pg2&gt;0.042" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.525" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Qg2&gt;0.023" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.479" -&gt; "Pmmc3&lt;=0.647" -&gt; </t>
@@ -501,7 +480,7 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.19" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.525" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Pg2&lt;=0.042" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.525" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Qg2&lt;=0.023" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.149" -&gt; "Pmmc3&lt;=0.323" -&gt; </t>
@@ -513,43 +492,43 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.149" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl7&lt;=-0.205" -&gt; "Ql5&lt;=-0.162" -&gt; "Pmmc3&lt;=-0.614" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.049" -&gt; "Qg1&gt;0.079" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.359" -&gt; "Qg1&gt;0.079" -&gt; "Pg1&gt;0.401" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl7&lt;=-0.205" -&gt; "Ql5&lt;=-0.162" -&gt; "Pmmc3&gt;-0.614" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.359" -&gt; "Qg1&gt;0.079" -&gt; "Pg1&lt;=0.401" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.205" -&gt; "Pl5&lt;=-0.216" -&gt; "Pmmc3&lt;=-0.614" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.049" -&gt; "Pg1&gt;0.131" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.359" -&gt; "Pg1&gt;0.401" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.205" -&gt; "Pl5&lt;=-0.216" -&gt; "Pmmc3&gt;-0.614" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.359" -&gt; "Pg1&gt;0.131" -&gt; "Pg1&lt;=0.401" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.716" -&gt; "Pg1&gt;0.121" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.359" -&gt; "Pmmc3&lt;=0.63" -&gt; "Qg1&gt;0.194" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.359" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg1&gt;0.369" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.716" -&gt; "Pmmc3&lt;=-0.398" -&gt; "Pg1&gt;0.121" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&lt;=0.243" -&gt; "Ql2&gt;-0.114" -&gt; "Pg1&lt;=0.239" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&lt;=0.017" -&gt; "Ql2&gt;-0.177" -&gt; "Ql2&lt;=-0.114" -&gt; "Pg1&lt;=0.239" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.359" -&gt; "Qg1&lt;=0.079" -&gt; </t>
+    <t xml:space="preserve">"Qg1&lt;=0.243" -&gt; "Ql2&gt;-0.177" -&gt; "Pg1&lt;=0.239" -&gt; "Pl2&gt;-0.152" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&lt;=0.017" -&gt; "Ql2&gt;-0.177" -&gt; "Pg1&lt;=0.239" -&gt; "Pl2&lt;=-0.152" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.359" -&gt; "Pg1&lt;=0.131" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.619" -&gt; "Pmmc3&lt;=-0.361" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.017" -&gt; "Qg1&lt;=0.243" -&gt; "Ql2&gt;-0.177" -&gt; "Ql2&lt;=-0.114" -&gt; "Pg1&lt;=0.239" -&gt; </t>
+    <t xml:space="preserve">"Qg1&gt;0.017" -&gt; "Qg1&lt;=0.243" -&gt; "Ql2&gt;-0.177" -&gt; "Pg1&lt;=0.239" -&gt; "Pl2&lt;=-0.152" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg1&lt;=0.243" -&gt; "Ql2&gt;-0.177" -&gt; "Pg1&gt;0.239" -&gt; </t>
@@ -558,13 +537,13 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.398" -&gt; "Pg1&lt;=0.121" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Ql5&gt;-0.162" -&gt; "Pmmc3&lt;=-0.321" -&gt; "Pl2&lt;=-0.276" -&gt; "Pl5&gt;-0.197" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pl5&gt;-0.197" -&gt; "Pmmc3&lt;=-0.321" -&gt; "Pl2&lt;=-0.276" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg1&lt;=0.243" -&gt; "Ql2&lt;=-0.177" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl7&gt;-0.205" -&gt; "Pl7&lt;=-0.148" -&gt; "Ql5&lt;=-0.162" -&gt; </t>
+    <t xml:space="preserve">"Pl7&gt;-0.205" -&gt; "Pl7&lt;=-0.148" -&gt; "Pl5&lt;=-0.216" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.123" -&gt; "Pg1&gt;0.306" -&gt; </t>
@@ -582,7 +561,7 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.123" -&gt; "Pg1&lt;=0.306" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.359" -&gt; "Pmmc3&lt;=0.63" -&gt; "Qg1&lt;=0.194" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.359" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg1&lt;=0.369" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql2&gt;-0.21" -&gt; </t>
@@ -594,7 +573,7 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=-0.017" -&gt; "Ql5&gt;-0.137" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Ql5&gt;-0.162" -&gt; "Pmmc3&lt;=-0.321" -&gt; "Pl2&lt;=-0.276" -&gt; "Pl5&lt;=-0.197" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pl5&gt;-0.216" -&gt; "Pl5&lt;=-0.197" -&gt; "Pmmc3&lt;=-0.321" -&gt; "Pl2&lt;=-0.276" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=-0.017" -&gt; "Ql5&lt;=-0.137" -&gt; </t>
@@ -621,31 +600,31 @@
     <t xml:space="preserve">"Qg1&lt;=0.16" -&gt; "Ql2&lt;=-0.213" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.243" -&gt; "Ql2&gt;-0.191" -&gt; </t>
+    <t xml:space="preserve">"Qg1&gt;0.243" -&gt; "Pl2&gt;-0.254" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.679" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Ql5&gt;-0.162" -&gt; "Pmmc3&lt;=-0.321" -&gt; "Pl2&gt;-0.276" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pg3&gt;0.112" -&gt; </t>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pl5&gt;-0.216" -&gt; "Pmmc3&lt;=-0.321" -&gt; "Pl2&gt;-0.276" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Qg3&gt;0.112" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pg1&lt;=0.282" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.243" -&gt; "Ql2&lt;=-0.191" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Ql5&gt;-0.162" -&gt; "Pmmc3&gt;-0.321" -&gt; </t>
+    <t xml:space="preserve">"Qg1&gt;0.243" -&gt; "Pl2&lt;=-0.254" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.148" -&gt; "Pl5&gt;-0.216" -&gt; "Pmmc3&gt;-0.321" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.679" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pg3&lt;=0.112" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Qg3&lt;=0.112" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; </t>
@@ -666,19 +645,19 @@
     <t>ind value</t>
   </si>
   <si>
-    <t>[55, 50, 49, 48]</t>
-  </si>
-  <si>
-    <t>[52, 47]</t>
+    <t>[48, 49, 50, 55, 53, 54]</t>
+  </si>
+  <si>
+    <t>[91, 61, 51, 46, 81]</t>
+  </si>
+  <si>
+    <t>[47, 52]</t>
   </si>
   <si>
     <t>[64]</t>
   </si>
   <si>
-    <t>[46, 91, 51, 61, 86, 66, 81]</t>
-  </si>
-  <si>
-    <t>[67, 62]</t>
+    <t>[62, 67]</t>
   </si>
   <si>
     <t>[41]</t>
@@ -687,72 +666,60 @@
     <t>[12]</t>
   </si>
   <si>
-    <t>Qg1&gt;0.095 and Ql2&gt;-0.212 and Pg1&lt;=0.3 and Pmmc3&lt;=0.025</t>
-  </si>
-  <si>
-    <t>Qg1&gt;0.095 and Ql2&gt;-0.212 and Pg1&lt;=0.3 and Pmmc3&gt;0.025</t>
+    <t>Pmmc3&lt;=0.18 and Pg1&lt;=0.3 and Qg1&lt;=0.119</t>
+  </si>
+  <si>
+    <t>Pmmc3&lt;=0.123 and Pl2&gt;-0.2</t>
+  </si>
+  <si>
+    <t>Pmmc3&lt;=0.123 and Pl2&lt;=-0.2</t>
+  </si>
+  <si>
+    <t>Pmmc3&lt;=0.18 and Pg1&lt;=0.3 and Qg1&gt;0.119</t>
   </si>
   <si>
     <t>Pmmc3&gt;-0.359 and Pmmc3&lt;=0.18 and Pl7&gt;-0.21 and Qg1&lt;=0.204</t>
   </si>
   <si>
-    <t>Qg1&gt;0.095 and Ql2&gt;-0.212 and Pg1&gt;0.3 and Pmmc3&lt;=0.352 and Pg3&lt;=0.189</t>
-  </si>
-  <si>
-    <t>Qg1&gt;0.095 and Ql2&gt;-0.212 and Pg1&gt;0.3 and Pmmc3&lt;=0.352 and Pg3&gt;0.189 and Pg2&gt;0.171</t>
+    <t>Pmmc3&gt;0.123 and Pmmc3&lt;=0.239</t>
+  </si>
+  <si>
+    <t>Pmmc3&gt;0.239 and Pmmc3&lt;=0.323</t>
   </si>
   <si>
     <t>Pmmc3&gt;-0.649 and Pmmc3&lt;=-0.359 and Pl7&gt;-0.21 and Qg1&lt;=0.204</t>
   </si>
   <si>
-    <t>Qg1&lt;=0.331 and Pmmc3&lt;=0.17 and Pg1&gt;0.298</t>
-  </si>
-  <si>
-    <t>Qg1&gt;0.095 and Qg1&lt;=0.294 and Ql2&gt;-0.212 and Pg1&gt;0.3 and Pmmc3&lt;=0.352 and Pg3&gt;0.189 and Pg2&lt;=0.171</t>
-  </si>
-  <si>
-    <t>Qg1&lt;=0.331 and Pmmc3&gt;0.17 and Pmmc3&lt;=0.352</t>
-  </si>
-  <si>
-    <t>Qg1&gt;0.294 and Ql2&gt;-0.212 and Pg1&gt;0.3 and Pmmc3&lt;=0.352 and Pg3&gt;0.189 and Pg2&lt;=0.171</t>
-  </si>
-  <si>
     <t>Pmmc3&gt;-0.649 and Pmmc3&lt;=0.18 and Pl7&gt;-0.21 and Qg1&gt;0.204</t>
   </si>
   <si>
+    <t>Pmmc3&gt;0.323 and Pmmc3&lt;=0.434</t>
+  </si>
+  <si>
+    <t>Pmmc3&gt;0.434 and Pmmc3&lt;=0.552</t>
+  </si>
+  <si>
     <t>Pmmc3&lt;=0.18 and Pl7&lt;=-0.21 and Qg1&gt;0.16</t>
   </si>
   <si>
     <t>Pmmc3&lt;=-0.649 and Pl7&gt;-0.21</t>
   </si>
   <si>
-    <t>Pmmc3&gt;0.239 and Pmmc3&lt;=0.323</t>
-  </si>
-  <si>
-    <t>Qg1&gt;0.095 and Ql2&gt;-0.212 and Pg1&gt;0.3 and Pmmc3&gt;0.352</t>
-  </si>
-  <si>
     <t>Qg1&lt;=0.331 and Pmmc3&gt;0.352</t>
   </si>
   <si>
-    <t>Pmmc3&gt;0.323 and Pmmc3&lt;=0.434</t>
-  </si>
-  <si>
     <t>Pmmc3&lt;=0.18 and Pl7&lt;=-0.21 and Qg1&lt;=0.16</t>
   </si>
   <si>
-    <t>Pmmc3&gt;0.434 and Pmmc3&lt;=0.552</t>
-  </si>
-  <si>
     <t>Pmmc3&gt;0.552 and Pmmc3&lt;=0.744</t>
   </si>
   <si>
+    <t>Pmmc3&gt;0.744 and Pmmc3&lt;=0.829</t>
+  </si>
+  <si>
     <t>Pmmc3&gt;0.239</t>
   </si>
   <si>
-    <t>Pmmc3&gt;0.744 and Pmmc3&lt;=0.829</t>
-  </si>
-  <si>
     <t>Pmmc3&gt;0.829</t>
   </si>
   <si>
@@ -774,7 +741,7 @@
     <t>Pmmc3&gt;-0.103 and Pmmc3&lt;=0.323 and Pg1&lt;=0.318</t>
   </si>
   <si>
-    <t>Pmmc3&gt;-0.525 and Pmmc3&lt;=-0.103 and Pg2&lt;=0.042</t>
+    <t>Pmmc3&gt;-0.525 and Pmmc3&lt;=-0.103 and Qg2&lt;=0.023</t>
   </si>
   <si>
     <t>lab</t>
@@ -1138,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.1803755618066931</v>
+        <v>0.1993996957667545</v>
       </c>
       <c r="D2">
-        <v>0.02368657444694947</v>
+        <v>0.02977227361769217</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1192,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.2012693444566858</v>
+        <v>0.2004797291658349</v>
       </c>
       <c r="D3">
-        <v>0.02437542592562564</v>
+        <v>0.07498503777128677</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1215,19 +1182,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.2224066611834363</v>
+        <v>0.2069368734828525</v>
       </c>
       <c r="D4">
-        <v>0.03336544944054046</v>
+        <v>0.07483286350652972</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1238,19 +1205,19 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.2175791114667056</v>
+      </c>
+      <c r="D5">
+        <v>0.03115021775431014</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.2282663341520851</v>
-      </c>
-      <c r="D5">
-        <v>0.02009625713553554</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1261,19 +1228,19 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.2224066611834363</v>
+      </c>
+      <c r="D6">
+        <v>0.03336544944054046</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
         <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.22836454869662</v>
-      </c>
-      <c r="D6">
-        <v>0.005884767642240904</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1284,19 +1251,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.2314116535902886</v>
+        <v>0.2229895647176857</v>
       </c>
       <c r="D7">
-        <v>0.004668198539374442</v>
+        <v>0.0709402985936806</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1307,19 +1274,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.237218408735262</v>
+        <v>0.22836454869662</v>
       </c>
       <c r="D8">
-        <v>0.02012435759914492</v>
+        <v>0.005884767642240904</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1330,19 +1297,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.2407155020443252</v>
+        <v>0.2339192039749609</v>
       </c>
       <c r="D9">
-        <v>0.02649649271344659</v>
+        <v>0.06839435847517882</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1353,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.2433909292237044</v>
+        <v>0.2407155020443252</v>
       </c>
       <c r="D10">
-        <v>0.003851606166568313</v>
+        <v>0.02649649271344659</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1376,19 +1343,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2435535647842752</v>
+        <v>0.2433909292237044</v>
       </c>
       <c r="D11">
-        <v>0.02152827639245853</v>
+        <v>0.003851606166568313</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1399,19 +1366,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0.2458444764327659</v>
+        <v>0.244716663962468</v>
       </c>
       <c r="D12">
-        <v>0.09634379893091075</v>
+        <v>0.02455200301023774</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1425,16 +1392,16 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.2501986454867452</v>
+        <v>0.2506596470127377</v>
       </c>
       <c r="D13">
-        <v>0.006591990242043051</v>
+        <v>0.003050776539594545</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1445,19 +1412,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>0.2506596470127377</v>
+        <v>0.255076831127246</v>
       </c>
       <c r="D14">
-        <v>0.003050776539594545</v>
+        <v>0.02836504881611645</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1468,19 +1435,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>0.2518677441260543</v>
+        <v>0.2594411962663014</v>
       </c>
       <c r="D15">
-        <v>0.01569277517497643</v>
+        <v>0.02713040732840008</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1491,19 +1458,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>0.2533420276233595</v>
+        <v>0.2595985330271336</v>
       </c>
       <c r="D16">
-        <v>0.09771085461514262</v>
+        <v>0.0654750023505878</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1514,19 +1481,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>0.2594411962663014</v>
+        <v>0.2636900814840973</v>
       </c>
       <c r="D17">
-        <v>0.02713040732840008</v>
+        <v>0.02157158075949274</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1537,19 +1504,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>0.2699355268750311</v>
+        <v>0.2736590969471341</v>
       </c>
       <c r="D18">
-        <v>0.09629791261572121</v>
+        <v>0.03537403678880707</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1560,19 +1527,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.2708085981159249</v>
+        <v>0.2758361759739756</v>
       </c>
       <c r="D19">
-        <v>0.005865897461917327</v>
+        <v>0.06436866253210197</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1595,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1618,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1629,19 +1596,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>0.2810575632117827</v>
+        <v>0.2968990416942724</v>
       </c>
       <c r="D22">
-        <v>0.09527002235577033</v>
+        <v>0.02039234023396798</v>
       </c>
       <c r="E22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1652,19 +1619,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>0.2853543301816148</v>
+        <v>0.309772583746858</v>
       </c>
       <c r="D23">
-        <v>0.03455276184092657</v>
+        <v>0.02251833317428626</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1675,19 +1642,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.286554878144038</v>
+        <v>0.3231050543828042</v>
       </c>
       <c r="D24">
-        <v>0.002842684460461804</v>
+        <v>0.07498526425156393</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1698,19 +1665,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.2873347562001834</v>
+        <v>0.324105132144098</v>
       </c>
       <c r="D25">
-        <v>0.00366959841912177</v>
+        <v>0.06630594711292184</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1721,19 +1688,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0.2968990416942724</v>
+        <v>0.3430361690737424</v>
       </c>
       <c r="D26">
-        <v>0.02039234023396798</v>
+        <v>0.0990100234292263</v>
       </c>
       <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
         <v>5</v>
-      </c>
-      <c r="F26">
-        <v>24</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1744,19 +1711,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0.3078050075976265</v>
+        <v>0.3458428828931371</v>
       </c>
       <c r="D27">
-        <v>0.09524899682721312</v>
+        <v>0.1075733672628358</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1767,19 +1734,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0.309772583746858</v>
+        <v>0.3579448058275885</v>
       </c>
       <c r="D28">
-        <v>0.02251833317428626</v>
+        <v>0.007706727135086545</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1790,19 +1757,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0.3231050543828042</v>
+        <v>0.3597883576554112</v>
       </c>
       <c r="D29">
-        <v>0.07498526425156393</v>
+        <v>0.1026905262053099</v>
       </c>
       <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
         <v>3</v>
-      </c>
-      <c r="F29">
-        <v>24</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1816,16 +1783,16 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>0.3249661057287461</v>
+        <v>0.3616362409391263</v>
       </c>
       <c r="D30">
-        <v>0.09613567817159838</v>
+        <v>0.1174333641941685</v>
       </c>
       <c r="E30">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1836,19 +1803,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.3430361690737424</v>
+        <v>0.362876435155156</v>
       </c>
       <c r="D31">
-        <v>0.0990100234292263</v>
+        <v>0.07418904082959028</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1859,19 +1826,19 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.3662046851921595</v>
+      </c>
+      <c r="D32">
+        <v>0.1070093034237676</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32">
         <v>3</v>
-      </c>
-      <c r="C32">
-        <v>0.3458428828931371</v>
-      </c>
-      <c r="D32">
-        <v>0.1075733672628358</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1882,19 +1849,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0.3597883576554112</v>
+        <v>0.3683844303177243</v>
       </c>
       <c r="D33">
-        <v>0.1026905262053099</v>
+        <v>0.009237656463566533</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1905,19 +1872,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>0.3616362409391263</v>
+        <v>0.3692547475510242</v>
       </c>
       <c r="D34">
-        <v>0.1174333641941685</v>
+        <v>0.1142497439097158</v>
       </c>
       <c r="E34">
         <v>20</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1928,19 +1895,19 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0.3719054717216383</v>
+      </c>
+      <c r="D35">
+        <v>0.08469669398874678</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
         <v>5</v>
-      </c>
-      <c r="C35">
-        <v>0.3662046851921595</v>
-      </c>
-      <c r="D35">
-        <v>0.1070093034237676</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>26</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1951,19 +1918,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>0.3692547475510242</v>
+        <v>0.3785042804932244</v>
       </c>
       <c r="D36">
-        <v>0.1142497439097158</v>
+        <v>0.1121624308477795</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1974,19 +1941,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>0.3719054717216383</v>
+        <v>0.385593427902492</v>
       </c>
       <c r="D37">
-        <v>0.08469669398874678</v>
+        <v>0.1006694280324672</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -1997,22 +1964,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>0.3768890843944034</v>
+        <v>0.3873004322683949</v>
       </c>
       <c r="D38">
-        <v>0.1019101266644787</v>
+        <v>0.008333637293201504</v>
       </c>
       <c r="E38">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2020,22 +1987,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>0.3785042804932244</v>
+        <v>0.3902098245421467</v>
       </c>
       <c r="D39">
-        <v>0.1121624308477795</v>
+        <v>0.2050231824231972</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2043,22 +2010,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>0.385593427902492</v>
+        <v>0.3941494948319081</v>
       </c>
       <c r="D40">
-        <v>0.1006694280324672</v>
+        <v>0.1194524285047756</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2066,22 +2033,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>0.3902098245421467</v>
+        <v>0.3976234931009144</v>
       </c>
       <c r="D41">
-        <v>0.2050231824231972</v>
+        <v>0.1104074086870659</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2089,22 +2056,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0.3941494948319081</v>
+        <v>0.3979662668423101</v>
       </c>
       <c r="D42">
-        <v>0.1194524285047756</v>
+        <v>0.101484358639879</v>
       </c>
       <c r="E42">
         <v>18</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2112,22 +2079,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.3976234931009144</v>
+        <v>0.3984545343263324</v>
       </c>
       <c r="D43">
-        <v>0.1104074086870659</v>
+        <v>0.01451128143203788</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2135,22 +2102,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>0.3979662668423101</v>
+        <v>0.3989034613038374</v>
       </c>
       <c r="D44">
-        <v>0.101484358639879</v>
+        <v>0.009580205410052984</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2158,22 +2125,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>0.3984545343263324</v>
+        <v>0.4017971820812962</v>
       </c>
       <c r="D45">
-        <v>0.01451128143203788</v>
+        <v>0.0973642318289959</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2181,22 +2148,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.3987815589347151</v>
+        <v>0.4102392397128709</v>
       </c>
       <c r="D46">
-        <v>0.09008478825418308</v>
+        <v>0.0138692906615498</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2204,22 +2171,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>0.4017971820812962</v>
+        <v>0.4117188541327191</v>
       </c>
       <c r="D47">
-        <v>0.0973642318289959</v>
+        <v>0.09645358484798397</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2227,22 +2194,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>0.4102392397128709</v>
+        <v>0.4165051356212118</v>
       </c>
       <c r="D48">
-        <v>0.0138692906615498</v>
+        <v>0.08846819179929707</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2250,22 +2217,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0.4165051356212118</v>
+        <v>0.4174502490153019</v>
       </c>
       <c r="D49">
-        <v>0.08846819179929707</v>
+        <v>0.1079931767343252</v>
       </c>
       <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
         <v>10</v>
       </c>
-      <c r="F49">
-        <v>17</v>
-      </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2273,22 +2240,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>0.4194523210378426</v>
+        <v>0.4252170647188431</v>
       </c>
       <c r="D50">
-        <v>0.110862387693401</v>
+        <v>0.01299383933405618</v>
       </c>
       <c r="E50">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2296,22 +2263,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0.4252170647188431</v>
+        <v>0.4274898694356405</v>
       </c>
       <c r="D51">
-        <v>0.01299383933405618</v>
+        <v>0.08888288017035625</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2319,22 +2286,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>0.4274898694356405</v>
+        <v>0.4283211940238591</v>
       </c>
       <c r="D52">
-        <v>0.08888288017035625</v>
+        <v>0.01089555380137785</v>
       </c>
       <c r="E52">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2354,10 +2321,10 @@
         <v>8</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2377,10 +2344,10 @@
         <v>6</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2400,10 +2367,10 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2423,10 +2390,10 @@
         <v>10</v>
       </c>
       <c r="F56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2434,22 +2401,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>0.4527325158274442</v>
+        <v>0.4477909301156721</v>
       </c>
       <c r="D57">
-        <v>0.0136781404675102</v>
+        <v>0.0162576717098914</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2457,22 +2424,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>0.4572022540120333</v>
+        <v>0.4527325158274442</v>
       </c>
       <c r="D58">
-        <v>0.08169236409481931</v>
+        <v>0.0136781404675102</v>
       </c>
       <c r="E58">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2480,22 +2447,22 @@
         <v>57</v>
       </c>
       <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0.4572022540120333</v>
+      </c>
+      <c r="D59">
+        <v>0.08169236409481931</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
         <v>13</v>
       </c>
-      <c r="C59">
-        <v>0.4684319928085296</v>
-      </c>
-      <c r="D59">
-        <v>0.009830776530433013</v>
-      </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
-      <c r="F59">
-        <v>14</v>
-      </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2503,22 +2470,22 @@
         <v>58</v>
       </c>
       <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>0.4684319928085296</v>
+      </c>
+      <c r="D60">
+        <v>0.009830776530433013</v>
+      </c>
+      <c r="E60">
         <v>8</v>
       </c>
-      <c r="C60">
-        <v>0.4695813310786892</v>
-      </c>
-      <c r="D60">
-        <v>0.01819414748847194</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
       <c r="F60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2526,22 +2493,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>0.4732577257060131</v>
+        <v>0.4695813310786892</v>
       </c>
       <c r="D61">
-        <v>0.12926361230399</v>
+        <v>0.01819414748847194</v>
       </c>
       <c r="E61">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2561,10 +2528,10 @@
         <v>12</v>
       </c>
       <c r="F62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2584,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2607,10 +2574,10 @@
         <v>6</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2618,22 +2585,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>0.5116360746739713</v>
+        <v>0.5088489650201666</v>
       </c>
       <c r="D65">
-        <v>0.0369447870806284</v>
+        <v>0.02057421499100725</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2641,22 +2608,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>0.5120156711948864</v>
+        <v>0.5116360746739713</v>
       </c>
       <c r="D66">
-        <v>0.01265281070153157</v>
+        <v>0.0369447870806284</v>
       </c>
       <c r="E66">
         <v>7</v>
       </c>
       <c r="F66">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2664,22 +2631,22 @@
         <v>65</v>
       </c>
       <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>0.5120156711948864</v>
+      </c>
+      <c r="D67">
+        <v>0.01265281070153157</v>
+      </c>
+      <c r="E67">
         <v>7</v>
       </c>
-      <c r="C67">
-        <v>0.5135652206478306</v>
-      </c>
-      <c r="D67">
-        <v>0.01173099283346913</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
       <c r="F67">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2687,22 +2654,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>0.5185888853465607</v>
+        <v>0.5135652206478306</v>
       </c>
       <c r="D68">
-        <v>0.03779625358425782</v>
+        <v>0.01173099283346913</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2710,22 +2677,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>0.5282787261253998</v>
+        <v>0.5343091721856933</v>
       </c>
       <c r="D69">
-        <v>0.01555757251880041</v>
+        <v>0.01024964326976906</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F69">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2733,22 +2700,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>0.5343091721856933</v>
+        <v>0.5608920357445593</v>
       </c>
       <c r="D70">
-        <v>0.01024964326976906</v>
+        <v>0.02140841254333892</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2756,22 +2723,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>0.5549797545390036</v>
+        <v>0.5705610156437142</v>
       </c>
       <c r="D71">
-        <v>0.3306934512370538</v>
+        <v>0.01780914051177953</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2779,22 +2746,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.5705610156437142</v>
+        <v>0.627104904639248</v>
       </c>
       <c r="D72">
-        <v>0.01780914051177953</v>
+        <v>0.03867866279305671</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2802,22 +2769,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.6432619506451611</v>
+        <v>0.6310462607205738</v>
       </c>
       <c r="D73">
-        <v>0.02174974497007436</v>
+        <v>0.1981640855855581</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2837,10 +2804,10 @@
         <v>6</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2848,22 +2815,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.6489818550545858</v>
+        <v>0.6689932931698273</v>
       </c>
       <c r="D75">
-        <v>0.02264964641528579</v>
+        <v>0.03848362966347645</v>
       </c>
       <c r="E75">
+        <v>33</v>
+      </c>
+      <c r="F75">
         <v>12</v>
       </c>
-      <c r="F75">
-        <v>5</v>
-      </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2871,22 +2838,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.6498614723145398</v>
+        <v>0.6753216787911431</v>
       </c>
       <c r="D76">
-        <v>0.0198343189633812</v>
+        <v>0.03731357462670011</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2894,22 +2861,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>0.6566913175455427</v>
+        <v>0.6800989578148761</v>
       </c>
       <c r="D77">
-        <v>0.02223635433334796</v>
+        <v>0.04038569331176389</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2920,19 +2887,19 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>0.6636160709073978</v>
+        <v>0.6833552093896498</v>
       </c>
       <c r="D78">
-        <v>0.02454408381212048</v>
+        <v>0.04433505105215271</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2940,22 +2907,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>0.6757832152016332</v>
+        <v>0.6925188086380867</v>
       </c>
       <c r="D79">
-        <v>0.02614368496355512</v>
+        <v>0.04518540520248257</v>
       </c>
       <c r="E79">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2963,22 +2930,22 @@
         <v>78</v>
       </c>
       <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>0.6997893380483385</v>
+      </c>
+      <c r="D80">
+        <v>0.04137013147735986</v>
+      </c>
+      <c r="E80">
+        <v>24</v>
+      </c>
+      <c r="F80">
         <v>12</v>
       </c>
-      <c r="C80">
-        <v>0.7183517645737318</v>
-      </c>
-      <c r="D80">
-        <v>0.06310758589246451</v>
-      </c>
-      <c r="E80">
-        <v>16</v>
-      </c>
-      <c r="F80">
-        <v>5</v>
-      </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2986,22 +2953,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>1.00049395128395</v>
+        <v>0.752856034822466</v>
       </c>
       <c r="D81">
-        <v>0.2932841941540705</v>
+        <v>0.08066503139301284</v>
       </c>
       <c r="E81">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3009,22 +2976,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>1.007135822546549</v>
+        <v>1.131440972302286</v>
       </c>
       <c r="D82">
-        <v>0.2968922884725851</v>
+        <v>0.1196661604788225</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F82">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3035,19 +3002,19 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>1.013090296949023</v>
+        <v>1.134878338580095</v>
       </c>
       <c r="D83">
-        <v>0.2876521090509997</v>
+        <v>0.1238100193470954</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F83">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3055,22 +3022,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>1.014329270128559</v>
+        <v>1.136539623259747</v>
       </c>
       <c r="D84">
-        <v>0.2945415674132177</v>
+        <v>0.1198679274684081</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3078,22 +3045,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>1.021520171991329</v>
+        <v>1.143360977150068</v>
       </c>
       <c r="D85">
-        <v>0.2859907632367298</v>
+        <v>0.1206436244414256</v>
       </c>
       <c r="E85">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3101,22 +3068,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>1.026744036797581</v>
+        <v>1.145573009754882</v>
       </c>
       <c r="D86">
-        <v>0.2883354231584111</v>
+        <v>0.1278895790339582</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F86">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3124,22 +3091,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87">
-        <v>1.087637757091168</v>
+        <v>1.148881336329146</v>
       </c>
       <c r="D87">
-        <v>0.2584136845799953</v>
+        <v>0.1149110886445916</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F87">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3147,22 +3114,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>1.131440972302286</v>
+        <v>1.156389320214817</v>
       </c>
       <c r="D88">
-        <v>0.1196661604788225</v>
+        <v>0.1144312305471741</v>
       </c>
       <c r="E88">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F88">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3170,22 +3137,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1.134878338580095</v>
+        <v>1.160852090484906</v>
       </c>
       <c r="D89">
-        <v>0.1238100193470954</v>
+        <v>0.1329367635213218</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3193,22 +3160,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>1.136539623259747</v>
+        <v>1.168470148010744</v>
       </c>
       <c r="D90">
-        <v>0.1198679274684081</v>
+        <v>0.01217573599048327</v>
       </c>
       <c r="E90">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3216,22 +3183,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>1.143360977150068</v>
+        <v>1.17532079469131</v>
       </c>
       <c r="D91">
-        <v>0.1206436244414256</v>
+        <v>0.02560643711747523</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3239,22 +3206,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>1.145573009754882</v>
+        <v>1.18466419299499</v>
       </c>
       <c r="D92">
-        <v>0.1278895790339582</v>
+        <v>0.02199755430028953</v>
       </c>
       <c r="E92">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3262,22 +3229,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>1.148881336329146</v>
+        <v>1.185968375937257</v>
       </c>
       <c r="D93">
-        <v>0.1149110886445916</v>
+        <v>0.03849094861314223</v>
       </c>
       <c r="E93">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3285,22 +3252,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>1.156389320214817</v>
+        <v>1.188639157909302</v>
       </c>
       <c r="D94">
-        <v>0.1144312305471741</v>
+        <v>0.05637425396011132</v>
       </c>
       <c r="E94">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F94">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3308,22 +3275,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>1.160852090484906</v>
+        <v>1.193037078314283</v>
       </c>
       <c r="D95">
-        <v>0.1329367635213218</v>
+        <v>0.01216936702733823</v>
       </c>
       <c r="E95">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3331,22 +3298,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96">
-        <v>1.168470148010744</v>
+        <v>1.196899150210972</v>
       </c>
       <c r="D96">
-        <v>0.01217573599048327</v>
+        <v>0.05227060033875085</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3354,22 +3321,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>1.17532079469131</v>
+        <v>1.202533576275706</v>
       </c>
       <c r="D97">
-        <v>0.02560643711747523</v>
+        <v>0.05283655336372958</v>
       </c>
       <c r="E97">
         <v>8</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3377,22 +3344,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>1.18466419299499</v>
+        <v>1.210810289502595</v>
       </c>
       <c r="D98">
-        <v>0.02199755430028953</v>
+        <v>0.01978950477738685</v>
       </c>
       <c r="E98">
         <v>10</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3400,22 +3367,22 @@
         <v>97</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1.234469331664251</v>
+      </c>
+      <c r="D99">
+        <v>0.06130167134824361</v>
+      </c>
+      <c r="E99">
         <v>8</v>
       </c>
-      <c r="C99">
-        <v>1.185968375937257</v>
-      </c>
-      <c r="D99">
-        <v>0.03849094861314223</v>
-      </c>
-      <c r="E99">
-        <v>10</v>
-      </c>
       <c r="F99">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3423,22 +3390,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>1.188639157909302</v>
+        <v>1.242638149925571</v>
       </c>
       <c r="D100">
-        <v>0.05637425396011132</v>
+        <v>0.0391620208501947</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3446,22 +3413,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C101">
-        <v>1.193037078314283</v>
+        <v>1.247275006710236</v>
       </c>
       <c r="D101">
-        <v>0.01216936702733823</v>
+        <v>0.04314311667806948</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3469,22 +3436,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>1.196899150210972</v>
+        <v>1.248855422371333</v>
       </c>
       <c r="D102">
-        <v>0.05227060033875085</v>
+        <v>0.04393749648871509</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3492,22 +3459,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>1.202533576275706</v>
+        <v>1.257277685007207</v>
       </c>
       <c r="D103">
-        <v>0.05283655336372958</v>
+        <v>0.04215044221011733</v>
       </c>
       <c r="E103">
         <v>8</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3515,22 +3482,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C104">
-        <v>1.210810289502595</v>
+        <v>1.259401819518575</v>
       </c>
       <c r="D104">
-        <v>0.01978950477738685</v>
+        <v>0.01765408047522283</v>
       </c>
       <c r="E104">
         <v>10</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G104" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3538,22 +3505,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>1.234469331664251</v>
+        <v>1.263695482379965</v>
       </c>
       <c r="D105">
-        <v>0.06130167134824361</v>
+        <v>0.04630564817002187</v>
       </c>
       <c r="E105">
         <v>8</v>
       </c>
       <c r="F105">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3561,22 +3528,22 @@
         <v>104</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1.265906330712416</v>
+      </c>
+      <c r="D106">
+        <v>0.04397624929263384</v>
+      </c>
+      <c r="E106">
         <v>8</v>
-      </c>
-      <c r="C106">
-        <v>1.242638149925571</v>
-      </c>
-      <c r="D106">
-        <v>0.0391620208501947</v>
-      </c>
-      <c r="E106">
-        <v>10</v>
       </c>
       <c r="F106">
         <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3584,22 +3551,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>1.247275006710236</v>
+        <v>1.282215745502011</v>
       </c>
       <c r="D107">
-        <v>0.04314311667806948</v>
+        <v>0.04467920253161438</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F107">
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3607,22 +3574,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>1.248855422371333</v>
+        <v>1.283372925265395</v>
       </c>
       <c r="D108">
-        <v>0.04393749648871509</v>
+        <v>0.003377217239575998</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3630,22 +3597,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>1.257277685007207</v>
+        <v>1.289754106916946</v>
       </c>
       <c r="D109">
-        <v>0.04215044221011733</v>
+        <v>0.005847549014450883</v>
       </c>
       <c r="E109">
         <v>8</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3653,22 +3620,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>1.259401819518575</v>
+        <v>1.295536918091698</v>
       </c>
       <c r="D110">
-        <v>0.01765408047522283</v>
+        <v>0.003055180684763158</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3676,22 +3643,22 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>1.263695482379965</v>
+        <v>1.295659671631406</v>
       </c>
       <c r="D111">
-        <v>0.04630564817002187</v>
+        <v>0.01968565419446685</v>
       </c>
       <c r="E111">
         <v>8</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3699,22 +3666,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C112">
-        <v>1.265906330712416</v>
+        <v>1.298363586667872</v>
       </c>
       <c r="D112">
-        <v>0.04397624929263384</v>
+        <v>0.01213371734937369</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3722,22 +3689,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>1.282215745502011</v>
+        <v>1.299516626653233</v>
       </c>
       <c r="D113">
-        <v>0.04467920253161438</v>
+        <v>0.004497309441572057</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G113" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3745,22 +3712,22 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>1.295659671631406</v>
+        <v>1.306891821272566</v>
       </c>
       <c r="D114">
-        <v>0.01968565419446685</v>
+        <v>0.01037921057094567</v>
       </c>
       <c r="E114">
         <v>8</v>
       </c>
       <c r="F114">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3768,22 +3735,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C115">
-        <v>1.36706283095584</v>
+        <v>1.319120279429316</v>
       </c>
       <c r="D115">
-        <v>0.02539229900776271</v>
+        <v>0.01137407340656327</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G115" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3794,19 +3761,19 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>1.38160871537978</v>
+        <v>1.36706283095584</v>
       </c>
       <c r="D116">
-        <v>0.004219453202211536</v>
+        <v>0.02539229900776271</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F116">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3814,22 +3781,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>1.390197052933506</v>
+        <v>1.38160871537978</v>
       </c>
       <c r="D117">
-        <v>0.00199034337387377</v>
+        <v>0.004219453202211536</v>
       </c>
       <c r="E117">
         <v>3</v>
       </c>
       <c r="F117">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3837,22 +3804,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>1.400895901980003</v>
+        <v>1.390197052933506</v>
       </c>
       <c r="D118">
-        <v>0.001382148536474822</v>
+        <v>0.00199034337387377</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="F118">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3860,22 +3827,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>1.405764385631134</v>
+        <v>1.400895901980003</v>
       </c>
       <c r="D119">
-        <v>0.003798930557596945</v>
+        <v>0.001382148536474822</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
       <c r="F119">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3883,22 +3850,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>1.408889218074554</v>
+        <v>1.405764385631134</v>
       </c>
       <c r="D120">
-        <v>0.01130981141741148</v>
+        <v>0.003798930557596945</v>
       </c>
       <c r="E120">
         <v>3</v>
       </c>
       <c r="F120">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3906,22 +3873,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>1.415559103807459</v>
+        <v>1.408889218074554</v>
       </c>
       <c r="D121">
-        <v>0.01508679869963776</v>
+        <v>0.01130981141741148</v>
       </c>
       <c r="E121">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3929,22 +3896,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>1.422580207309909</v>
+        <v>1.415559103807459</v>
       </c>
       <c r="D122">
-        <v>0.008530793982624225</v>
+        <v>0.01508679869963776</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G122" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3952,22 +3919,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>1.422943920494792</v>
+        <v>1.422580207309909</v>
       </c>
       <c r="D123">
-        <v>0.06100459576366148</v>
+        <v>0.008530793982624225</v>
       </c>
       <c r="E123">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3975,22 +3942,22 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>1.427872191781796</v>
+        <v>1.422943920494792</v>
       </c>
       <c r="D124">
-        <v>0.005194030279093777</v>
+        <v>0.06100459576366148</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F124">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3998,22 +3965,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>1.432116036104597</v>
+        <v>1.427872191781796</v>
       </c>
       <c r="D125">
-        <v>0.06023082167724831</v>
+        <v>0.005194030279093777</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4021,22 +3988,22 @@
         <v>124</v>
       </c>
       <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>1.432116036104597</v>
+      </c>
+      <c r="D126">
+        <v>0.06023082167724831</v>
+      </c>
+      <c r="E126">
         <v>14</v>
       </c>
-      <c r="C126">
-        <v>1.436644070888779</v>
-      </c>
-      <c r="D126">
-        <v>0.003618622040397537</v>
-      </c>
-      <c r="E126">
-        <v>4</v>
-      </c>
       <c r="F126">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4044,22 +4011,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>1.43913852268445</v>
+        <v>1.436644070888779</v>
       </c>
       <c r="D127">
-        <v>0.06785195386237433</v>
+        <v>0.003618622040397537</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F127">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4067,22 +4034,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C128">
-        <v>1.444260109323463</v>
+        <v>1.43913852268445</v>
       </c>
       <c r="D128">
-        <v>0.06234815671629675</v>
+        <v>0.06785195386237433</v>
       </c>
       <c r="E128">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F128">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4090,22 +4057,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>1.450113391922618</v>
+        <v>1.444260109323463</v>
       </c>
       <c r="D129">
-        <v>0.06471879767221922</v>
+        <v>0.06234815671629675</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F129">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4113,22 +4080,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>1.456090382405536</v>
+        <v>1.450113391922618</v>
       </c>
       <c r="D130">
-        <v>0.07071191172900772</v>
+        <v>0.06471879767221922</v>
       </c>
       <c r="E130">
         <v>12</v>
       </c>
       <c r="F130">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4136,22 +4103,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>1.465899388886643</v>
+        <v>1.456090382405536</v>
       </c>
       <c r="D131">
-        <v>0.07326668345616748</v>
+        <v>0.07071191172900772</v>
       </c>
       <c r="E131">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F131">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4159,22 +4126,22 @@
         <v>130</v>
       </c>
       <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>1.465899388886643</v>
+      </c>
+      <c r="D132">
+        <v>0.07326668345616748</v>
+      </c>
+      <c r="E132">
         <v>14</v>
       </c>
-      <c r="C132">
-        <v>1.491082574281716</v>
-      </c>
-      <c r="D132">
-        <v>0.07818802321972762</v>
-      </c>
-      <c r="E132">
-        <v>12</v>
-      </c>
       <c r="F132">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4182,22 +4149,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>1.491328331179611</v>
+        <v>1.491082574281716</v>
       </c>
       <c r="D133">
-        <v>0.01490369169963703</v>
+        <v>0.07818802321972762</v>
       </c>
       <c r="E133">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F133">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4205,22 +4172,22 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134">
-        <v>1.610776256004674</v>
+        <v>1.491328331179611</v>
       </c>
       <c r="D134">
-        <v>0.0513984363567286</v>
+        <v>0.01490369169963703</v>
       </c>
       <c r="E134">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G134" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4228,22 +4195,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C135">
-        <v>1.76477394255099</v>
+        <v>1.610776256004674</v>
       </c>
       <c r="D135">
-        <v>0.4897923336203601</v>
+        <v>0.0513984363567286</v>
       </c>
       <c r="E135">
         <v>12</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G135" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4251,22 +4218,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>1.801847130754768</v>
+        <v>1.76477394255099</v>
       </c>
       <c r="D136">
-        <v>0.5537664432081718</v>
+        <v>0.4897923336203601</v>
       </c>
       <c r="E136">
         <v>12</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4274,22 +4241,22 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137">
-        <v>1.842781486966504</v>
+        <v>1.801847130754768</v>
       </c>
       <c r="D137">
-        <v>0.6056688580423553</v>
+        <v>0.5537664432081718</v>
       </c>
       <c r="E137">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F137">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4297,22 +4264,22 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138">
-        <v>1.856531298097779</v>
+        <v>1.842781486966504</v>
       </c>
       <c r="D138">
-        <v>0.08473241158089352</v>
+        <v>0.6056688580423553</v>
       </c>
       <c r="E138">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F138">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4320,22 +4287,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C139">
-        <v>1.857668014169313</v>
+        <v>1.856531298097779</v>
       </c>
       <c r="D139">
-        <v>0.615500566765434</v>
+        <v>0.08473241158089352</v>
       </c>
       <c r="E139">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F139">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G139" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4343,22 +4310,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C140">
-        <v>1.900570860830973</v>
+        <v>1.857668014169313</v>
       </c>
       <c r="D140">
-        <v>0.6632441871714181</v>
+        <v>0.615500566765434</v>
       </c>
       <c r="E140">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F140">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G140" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4366,22 +4333,22 @@
         <v>139</v>
       </c>
       <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>1.900570860830973</v>
+      </c>
+      <c r="D141">
+        <v>0.6632441871714181</v>
+      </c>
+      <c r="E141">
         <v>14</v>
       </c>
-      <c r="C141">
-        <v>1.945817062349573</v>
-      </c>
-      <c r="D141">
-        <v>0.7735711191543699</v>
-      </c>
-      <c r="E141">
-        <v>12</v>
-      </c>
       <c r="F141">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4389,22 +4356,22 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>1.991719765511187</v>
+        <v>1.945817062349573</v>
       </c>
       <c r="D142">
-        <v>0.7816481527235269</v>
+        <v>0.7735711191543699</v>
       </c>
       <c r="E142">
         <v>12</v>
       </c>
       <c r="F142">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4412,22 +4379,22 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>2.13503943595386</v>
+        <v>1.991719765511187</v>
       </c>
       <c r="D143">
-        <v>0.9795225743369037</v>
+        <v>0.7816481527235269</v>
       </c>
       <c r="E143">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F143">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4435,22 +4402,22 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>2.167267059718129</v>
+        <v>2.13503943595386</v>
       </c>
       <c r="D144">
-        <v>0.08096031442293705</v>
+        <v>0.9795225743369037</v>
       </c>
       <c r="E144">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F144">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4458,22 +4425,22 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>2.350201670869566</v>
+        <v>2.167267059718129</v>
       </c>
       <c r="D145">
-        <v>0.09599813487912429</v>
+        <v>0.08096031442293705</v>
       </c>
       <c r="E145">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F145">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G145" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4481,22 +4448,22 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C146">
-        <v>2.449700812846212</v>
+        <v>2.350201670869566</v>
       </c>
       <c r="D146">
-        <v>0.04057911986971519</v>
+        <v>0.09599813487912429</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F146">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G146" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4504,22 +4471,22 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>2.475230360051592</v>
+        <v>2.449700812846212</v>
       </c>
       <c r="D147">
-        <v>0.09570588979761141</v>
+        <v>0.04057911986971519</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F147">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4527,22 +4494,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>2.506276080243591</v>
+        <v>2.475230360051592</v>
       </c>
       <c r="D148">
-        <v>0.311608977498929</v>
+        <v>0.09570588979761141</v>
       </c>
       <c r="E148">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G148" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4550,22 +4517,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>2.548022099117817</v>
+        <v>2.506276080243591</v>
       </c>
       <c r="D149">
-        <v>0.03922469362642256</v>
+        <v>0.311608977498929</v>
       </c>
       <c r="E149">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F149">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4573,22 +4540,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>2.569258871693519</v>
+        <v>2.548022099117817</v>
       </c>
       <c r="D150">
-        <v>0.09697439692682581</v>
+        <v>0.03922469362642256</v>
       </c>
       <c r="E150">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F150">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4596,22 +4563,22 @@
         <v>149</v>
       </c>
       <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151">
+        <v>2.569258871693519</v>
+      </c>
+      <c r="D151">
+        <v>0.09697439692682581</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151">
         <v>6</v>
       </c>
-      <c r="C151">
-        <v>2.62021525292361</v>
-      </c>
-      <c r="D151">
-        <v>0.04851952460117442</v>
-      </c>
-      <c r="E151">
-        <v>16</v>
-      </c>
-      <c r="F151">
-        <v>21</v>
-      </c>
       <c r="G151" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4619,22 +4586,22 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>2.634445448250733</v>
+        <v>2.62021525292361</v>
       </c>
       <c r="D152">
-        <v>0.1009851301157922</v>
+        <v>0.04851952460117442</v>
       </c>
       <c r="E152">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F152">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4642,22 +4609,22 @@
         <v>151</v>
       </c>
       <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>2.634445448250733</v>
+      </c>
+      <c r="D153">
+        <v>0.1009851301157922</v>
+      </c>
+      <c r="E153">
         <v>11</v>
       </c>
-      <c r="C153">
-        <v>2.687270145462434</v>
-      </c>
-      <c r="D153">
-        <v>0.3489254450562974</v>
-      </c>
-      <c r="E153">
-        <v>18</v>
-      </c>
       <c r="F153">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G153" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4665,22 +4632,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C154">
-        <v>2.711742691277318</v>
+        <v>2.687270145462434</v>
       </c>
       <c r="D154">
-        <v>0.06989460128966964</v>
+        <v>0.3489254450562974</v>
       </c>
       <c r="E154">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F154">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4688,22 +4655,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C155">
-        <v>2.764056586232648</v>
+        <v>2.711742691277318</v>
       </c>
       <c r="D155">
-        <v>0.07755375587476737</v>
+        <v>0.06989460128966964</v>
       </c>
       <c r="E155">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G155" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4711,22 +4678,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C156">
-        <v>2.837414068440928</v>
+        <v>2.764056586232648</v>
       </c>
       <c r="D156">
-        <v>0.09986293069644543</v>
+        <v>0.07755375587476737</v>
       </c>
       <c r="E156">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F156">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4734,22 +4701,22 @@
         <v>155</v>
       </c>
       <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>2.837414068440928</v>
+      </c>
+      <c r="D157">
+        <v>0.09986293069644543</v>
+      </c>
+      <c r="E157">
         <v>10</v>
       </c>
-      <c r="C157">
-        <v>2.859054257804478</v>
-      </c>
-      <c r="D157">
-        <v>0.08452784753144789</v>
-      </c>
-      <c r="E157">
-        <v>16</v>
-      </c>
       <c r="F157">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4757,22 +4724,22 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C158">
-        <v>2.906491707830603</v>
+        <v>2.859054257804478</v>
       </c>
       <c r="D158">
-        <v>0.1945048478244278</v>
+        <v>0.08452784753144789</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F158">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4780,22 +4747,22 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>2.918202848283007</v>
+        <v>2.906491707830603</v>
       </c>
       <c r="D159">
-        <v>0.3594341803761498</v>
+        <v>0.1945048478244278</v>
       </c>
       <c r="E159">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G159" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4803,22 +4770,22 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>3.011268193367252</v>
+        <v>2.918202848283007</v>
       </c>
       <c r="D160">
-        <v>0.1226728690226516</v>
+        <v>0.3594341803761498</v>
       </c>
       <c r="E160">
         <v>16</v>
       </c>
       <c r="F160">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4826,22 +4793,22 @@
         <v>159</v>
       </c>
       <c r="B161">
+        <v>11</v>
+      </c>
+      <c r="C161">
+        <v>3.011268193367252</v>
+      </c>
+      <c r="D161">
+        <v>0.1226728690226516</v>
+      </c>
+      <c r="E161">
+        <v>16</v>
+      </c>
+      <c r="F161">
         <v>9</v>
       </c>
-      <c r="C161">
-        <v>3.049162940714846</v>
-      </c>
-      <c r="D161">
-        <v>0.1146856911092424</v>
-      </c>
-      <c r="E161">
-        <v>10</v>
-      </c>
-      <c r="F161">
-        <v>19</v>
-      </c>
       <c r="G161" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4849,22 +4816,22 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C162">
-        <v>3.252659129995573</v>
+        <v>3.049162940714846</v>
       </c>
       <c r="D162">
-        <v>0.2050721212041119</v>
+        <v>0.1146856911092424</v>
       </c>
       <c r="E162">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F162">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G162" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4872,22 +4839,22 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C163">
-        <v>3.253482113770772</v>
+        <v>3.252659129995573</v>
       </c>
       <c r="D163">
-        <v>0.4229084168023888</v>
+        <v>0.2050721212041119</v>
       </c>
       <c r="E163">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4895,22 +4862,22 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164">
-        <v>3.305103406858062</v>
+        <v>3.253482113770772</v>
       </c>
       <c r="D164">
-        <v>0.08852492695270732</v>
+        <v>0.4229084168023888</v>
       </c>
       <c r="E164">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F164">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4918,22 +4885,22 @@
         <v>163</v>
       </c>
       <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>3.305103406858062</v>
+      </c>
+      <c r="D165">
+        <v>0.08852492695270732</v>
+      </c>
+      <c r="E165">
+        <v>11</v>
+      </c>
+      <c r="F165">
         <v>6</v>
       </c>
-      <c r="C165">
-        <v>3.604658384133212</v>
-      </c>
-      <c r="D165">
-        <v>0.3475297759139165</v>
-      </c>
-      <c r="E165">
-        <v>10</v>
-      </c>
-      <c r="F165">
-        <v>11</v>
-      </c>
       <c r="G165" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4944,19 +4911,19 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>3.683758188171145</v>
+        <v>3.604658384133212</v>
       </c>
       <c r="D166">
-        <v>0.5084153178168249</v>
+        <v>0.3475297759139165</v>
       </c>
       <c r="E166">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G166" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4964,22 +4931,22 @@
         <v>165</v>
       </c>
       <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>3.683758188171145</v>
+      </c>
+      <c r="D167">
+        <v>0.5084153178168249</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="F167">
         <v>14</v>
       </c>
-      <c r="C167">
-        <v>3.757244758537867</v>
-      </c>
-      <c r="D167">
-        <v>0.3922440077930566</v>
-      </c>
-      <c r="E167">
-        <v>24</v>
-      </c>
-      <c r="F167">
-        <v>21</v>
-      </c>
       <c r="G167" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4987,22 +4954,22 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C168">
-        <v>4.0156293456049</v>
+        <v>3.757244758537867</v>
       </c>
       <c r="D168">
-        <v>0.4196084908648238</v>
+        <v>0.3922440077930566</v>
       </c>
       <c r="E168">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F168">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5010,22 +4977,22 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>4.270553621469658</v>
+        <v>4.0156293456049</v>
       </c>
       <c r="D169">
-        <v>0.474857630477687</v>
+        <v>0.4196084908648238</v>
       </c>
       <c r="E169">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F169">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G169" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5036,19 +5003,19 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>4.847769686707415</v>
+        <v>4.270553621469658</v>
       </c>
       <c r="D170">
-        <v>0.7637559309925039</v>
+        <v>0.474857630477687</v>
       </c>
       <c r="E170">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G170" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5056,22 +5023,22 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171">
-        <v>5.123933624145518</v>
+        <v>4.847769686707415</v>
       </c>
       <c r="D171">
-        <v>0.3729321173261366</v>
+        <v>0.7637559309925039</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F171">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5079,22 +5046,22 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>5.192482020568396</v>
+        <v>5.123933624145518</v>
       </c>
       <c r="D172">
-        <v>0.4662465261449789</v>
+        <v>0.3729321173261366</v>
       </c>
       <c r="E172">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F172">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5102,22 +5069,22 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>5.557157099182553</v>
+        <v>5.192482020568396</v>
       </c>
       <c r="D173">
-        <v>0.4654444597431641</v>
+        <v>0.4662465261449789</v>
       </c>
       <c r="E173">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F173">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5125,22 +5092,22 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174">
-        <v>5.690771378977781</v>
+        <v>5.557157099182553</v>
       </c>
       <c r="D174">
-        <v>0.339117475653718</v>
+        <v>0.4654444597431641</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F174">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5148,22 +5115,22 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175">
-        <v>5.718484434992743</v>
+        <v>5.690771378977781</v>
       </c>
       <c r="D175">
-        <v>0.4754679139010056</v>
+        <v>0.339117475653718</v>
       </c>
       <c r="E175">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F175">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G175" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5171,22 +5138,22 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176">
-        <v>5.839659258360233</v>
+        <v>5.718484434992743</v>
       </c>
       <c r="D176">
-        <v>0.1810983475329799</v>
+        <v>0.4754679139010056</v>
       </c>
       <c r="E176">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F176">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5194,22 +5161,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C177">
-        <v>6.061020949209752</v>
+        <v>5.839659258360233</v>
       </c>
       <c r="D177">
-        <v>0.5308974920087888</v>
+        <v>0.1810983475329799</v>
       </c>
       <c r="E177">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F177">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G177" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5217,22 +5184,22 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C178">
-        <v>6.192966749475477</v>
+        <v>6.061020949209752</v>
       </c>
       <c r="D178">
-        <v>0.2043368352833178</v>
+        <v>0.5308974920087888</v>
       </c>
       <c r="E178">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F178">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5240,22 +5207,22 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179">
-        <v>6.210645501048911</v>
+        <v>6.192966749475477</v>
       </c>
       <c r="D179">
-        <v>0.266784895637894</v>
+        <v>0.2043368352833178</v>
       </c>
       <c r="E179">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G179" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5263,22 +5230,22 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180">
-        <v>6.273189368936138</v>
+        <v>6.210645501048911</v>
       </c>
       <c r="D180">
-        <v>0.2551654088783001</v>
+        <v>0.266784895637894</v>
       </c>
       <c r="E180">
         <v>12</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G180" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5286,22 +5253,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C181">
-        <v>6.28324874492213</v>
+        <v>6.273189368936138</v>
       </c>
       <c r="D181">
-        <v>4.298671439524307</v>
+        <v>0.2551654088783001</v>
       </c>
       <c r="E181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F181">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5309,22 +5276,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>6.295413089230927</v>
+        <v>6.28324874492213</v>
       </c>
       <c r="D182">
-        <v>0.823797676411185</v>
+        <v>4.298671439524307</v>
       </c>
       <c r="E182">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F182">
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5335,19 +5302,19 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>6.306593563121832</v>
+        <v>6.295413089230927</v>
       </c>
       <c r="D183">
-        <v>1.332563739270992</v>
+        <v>0.823797676411185</v>
       </c>
       <c r="E183">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F183">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5355,22 +5322,22 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C184">
-        <v>6.417809433729699</v>
+        <v>6.306593563121832</v>
       </c>
       <c r="D184">
-        <v>0.234298830676479</v>
+        <v>1.332563739270992</v>
       </c>
       <c r="E184">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G184" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5378,22 +5345,22 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C185">
-        <v>6.59627897596275</v>
+        <v>6.417809433729699</v>
       </c>
       <c r="D185">
-        <v>0.1868175236726492</v>
+        <v>0.234298830676479</v>
       </c>
       <c r="E185">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G185" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5401,22 +5368,22 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C186">
-        <v>6.639025201698703</v>
+        <v>6.59627897596275</v>
       </c>
       <c r="D186">
-        <v>0.2459836151732738</v>
+        <v>0.1868175236726492</v>
       </c>
       <c r="E186">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F186">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G186" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5424,22 +5391,22 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>6.776544793899852</v>
+        <v>6.639025201698703</v>
       </c>
       <c r="D187">
-        <v>1.196297928859147</v>
+        <v>0.2459836151732738</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F187">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G187" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5447,22 +5414,22 @@
         <v>186</v>
       </c>
       <c r="B188">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>6.776544793899852</v>
+      </c>
+      <c r="D188">
+        <v>1.196297928859147</v>
+      </c>
+      <c r="E188">
         <v>2</v>
       </c>
-      <c r="C188">
-        <v>6.902766210116231</v>
-      </c>
-      <c r="D188">
-        <v>0.2307483939835204</v>
-      </c>
-      <c r="E188">
-        <v>21</v>
-      </c>
       <c r="F188">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G188" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5470,22 +5437,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C189">
-        <v>7.024192511206796</v>
+        <v>6.902766210116231</v>
       </c>
       <c r="D189">
-        <v>0.06129791768580434</v>
+        <v>0.2307483939835204</v>
       </c>
       <c r="E189">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F189">
         <v>20</v>
       </c>
       <c r="G189" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5493,22 +5460,22 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>7.045107080369214</v>
+        <v>7.024192511206796</v>
       </c>
       <c r="D190">
-        <v>0.2528422100700992</v>
+        <v>0.06129791768580434</v>
       </c>
       <c r="E190">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F190">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G190" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5516,22 +5483,22 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C191">
-        <v>7.047402833555065</v>
+        <v>7.045107080369214</v>
       </c>
       <c r="D191">
-        <v>0.1638003094644677</v>
+        <v>0.2528422100700992</v>
       </c>
       <c r="E191">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G191" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5539,22 +5506,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C192">
-        <v>7.306219234570738</v>
+        <v>7.047402833555065</v>
       </c>
       <c r="D192">
-        <v>0.1641365994151953</v>
+        <v>0.1638003094644677</v>
       </c>
       <c r="E192">
         <v>12</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5562,22 +5529,22 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C193">
-        <v>7.666501812604858</v>
+        <v>7.306219234570738</v>
       </c>
       <c r="D193">
-        <v>0.2781810085046772</v>
+        <v>0.1641365994151953</v>
       </c>
       <c r="E193">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5585,22 +5552,22 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C194">
-        <v>7.674839372752658</v>
+        <v>7.666501812604858</v>
       </c>
       <c r="D194">
-        <v>0.3406648631683089</v>
+        <v>0.2781810085046772</v>
       </c>
       <c r="E194">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F194">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5608,22 +5575,22 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C195">
-        <v>7.697930499183316</v>
+        <v>7.674839372752658</v>
       </c>
       <c r="D195">
-        <v>0.7497467453382809</v>
+        <v>0.3406648631683089</v>
       </c>
       <c r="E195">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F195">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G195" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5631,22 +5598,22 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C196">
-        <v>8.014541461678814</v>
+        <v>7.697930499183316</v>
       </c>
       <c r="D196">
-        <v>1.750028830881315</v>
+        <v>0.7497467453382809</v>
       </c>
       <c r="E196">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5654,22 +5621,22 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>8.215371450191439</v>
+        <v>8.014541461678814</v>
       </c>
       <c r="D197">
-        <v>2.164288617781968</v>
+        <v>1.750028830881315</v>
       </c>
       <c r="E197">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F197">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5677,22 +5644,22 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C198">
-        <v>8.24075437505458</v>
+        <v>8.215371450191439</v>
       </c>
       <c r="D198">
-        <v>0.9140237136708393</v>
+        <v>2.164288617781968</v>
       </c>
       <c r="E198">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F198">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5700,22 +5667,22 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C199">
-        <v>8.28084468962726</v>
+        <v>8.24075437505458</v>
       </c>
       <c r="D199">
-        <v>0.5791576003189924</v>
+        <v>0.9140237136708393</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F199">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5723,22 +5690,22 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C200">
-        <v>8.425583642502767</v>
+        <v>8.28084468962726</v>
       </c>
       <c r="D200">
-        <v>1.781170479239582</v>
+        <v>0.5791576003189924</v>
       </c>
       <c r="E200">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F200">
         <v>22</v>
       </c>
       <c r="G200" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5746,22 +5713,22 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C201">
-        <v>8.487441298355279</v>
+        <v>8.425583642502767</v>
       </c>
       <c r="D201">
-        <v>0.4773596367817988</v>
+        <v>1.781170479239582</v>
       </c>
       <c r="E201">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F201">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G201" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5769,22 +5736,22 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C202">
-        <v>8.683260336740826</v>
+        <v>8.487441298355279</v>
       </c>
       <c r="D202">
-        <v>0.894372461152251</v>
+        <v>0.4773596367817988</v>
       </c>
       <c r="E202">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F202">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G202" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5792,22 +5759,22 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C203">
-        <v>8.694664860012896</v>
+        <v>8.683260336740826</v>
       </c>
       <c r="D203">
-        <v>0.1423369780551031</v>
+        <v>0.894372461152251</v>
       </c>
       <c r="E203">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G203" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5815,22 +5782,22 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>8.971653196694806</v>
+        <v>8.694664860012896</v>
       </c>
       <c r="D204">
-        <v>0.2197446130666454</v>
+        <v>0.1423369780551031</v>
       </c>
       <c r="E204">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F204">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G204" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5838,22 +5805,22 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>9.212928115878615</v>
+        <v>8.971653196694806</v>
       </c>
       <c r="D205">
-        <v>0.2710473496287047</v>
+        <v>0.2197446130666454</v>
       </c>
       <c r="E205">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F205">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G205" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5861,22 +5828,22 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C206">
-        <v>9.665854398566587</v>
+        <v>9.212928115878615</v>
       </c>
       <c r="D206">
-        <v>0.2156310008014861</v>
+        <v>0.2710473496287047</v>
       </c>
       <c r="E206">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5884,22 +5851,22 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C207">
-        <v>9.730405066111286</v>
+        <v>9.665854398566587</v>
       </c>
       <c r="D207">
-        <v>0.5005474792902195</v>
+        <v>0.2156310008014861</v>
       </c>
       <c r="E207">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F207">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G207" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5907,22 +5874,22 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C208">
-        <v>9.860644933067174</v>
+        <v>9.730405066111286</v>
       </c>
       <c r="D208">
-        <v>0.3348429470358636</v>
+        <v>0.5005474792902195</v>
       </c>
       <c r="E208">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G208" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5930,22 +5897,22 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C209">
-        <v>9.867499353019346</v>
+        <v>9.860644933067174</v>
       </c>
       <c r="D209">
-        <v>1.469016563579489</v>
+        <v>0.3348429470358636</v>
       </c>
       <c r="E209">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F209">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G209" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5953,22 +5920,22 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C210">
-        <v>10.27279593906726</v>
+        <v>9.867499353019346</v>
       </c>
       <c r="D210">
-        <v>1.006082862670761</v>
+        <v>1.469016563579489</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F210">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G210" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5976,22 +5943,22 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C211">
-        <v>10.43101101388295</v>
+        <v>10.27279593906726</v>
       </c>
       <c r="D211">
-        <v>1.234703462869555</v>
+        <v>1.006082862670761</v>
       </c>
       <c r="E211">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G211" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5999,22 +5966,22 @@
         <v>210</v>
       </c>
       <c r="B212">
+        <v>14</v>
+      </c>
+      <c r="C212">
+        <v>10.43101101388295</v>
+      </c>
+      <c r="D212">
+        <v>1.234703462869555</v>
+      </c>
+      <c r="E212">
         <v>12</v>
       </c>
-      <c r="C212">
-        <v>10.55866269503734</v>
-      </c>
-      <c r="D212">
-        <v>1.059719793007365</v>
-      </c>
-      <c r="E212">
-        <v>27</v>
-      </c>
       <c r="F212">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6022,22 +5989,22 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C213">
-        <v>10.76136438637008</v>
+        <v>10.55866269503734</v>
       </c>
       <c r="D213">
-        <v>0.6174813066467367</v>
+        <v>1.059719793007365</v>
       </c>
       <c r="E213">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F213">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G213" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6045,22 +6012,22 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C214">
-        <v>11.14647850854518</v>
+        <v>10.76136438637008</v>
       </c>
       <c r="D214">
-        <v>1.089901999834367</v>
+        <v>0.6174813066467367</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F214">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G214" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6068,22 +6035,22 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C215">
-        <v>13.98918241156527</v>
+        <v>11.14647850854518</v>
       </c>
       <c r="D215">
-        <v>5.855854877402959</v>
+        <v>1.089901999834367</v>
       </c>
       <c r="E215">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F215">
         <v>22</v>
       </c>
       <c r="G215" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6091,22 +6058,22 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C216">
-        <v>14.03161907304401</v>
+        <v>13.98918241156527</v>
       </c>
       <c r="D216">
-        <v>3.555697107517152</v>
+        <v>5.855854877402959</v>
       </c>
       <c r="E216">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F216">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G216" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6114,22 +6081,22 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C217">
-        <v>16.59770942152543</v>
+        <v>14.03161907304401</v>
       </c>
       <c r="D217">
-        <v>19.61404012240849</v>
+        <v>3.555697107517152</v>
       </c>
       <c r="E217">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F217">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G217" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6137,22 +6104,22 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C218">
-        <v>17.35120601987143</v>
+        <v>16.59770942152543</v>
       </c>
       <c r="D218">
-        <v>0.9096857077506745</v>
+        <v>19.61404012240849</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F218">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G218" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6160,22 +6127,22 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C219">
-        <v>17.83293989620176</v>
+        <v>17.35120601987143</v>
       </c>
       <c r="D219">
-        <v>11.65684940852695</v>
+        <v>0.9096857077506745</v>
       </c>
       <c r="E219">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G219" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6183,22 +6150,45 @@
         <v>218</v>
       </c>
       <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>17.83293989620176</v>
+      </c>
+      <c r="D220">
+        <v>11.65684940852695</v>
+      </c>
+      <c r="E220">
+        <v>13</v>
+      </c>
+      <c r="F220">
         <v>14</v>
       </c>
-      <c r="C220">
+      <c r="G220" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>14</v>
+      </c>
+      <c r="C221">
         <v>19.61204616111733</v>
       </c>
-      <c r="D220">
+      <c r="D221">
         <v>4.743092011963404</v>
       </c>
-      <c r="E220">
+      <c r="E221">
         <v>33</v>
       </c>
-      <c r="F220">
-        <v>30</v>
-      </c>
-      <c r="G220" t="s">
-        <v>141</v>
+      <c r="F221">
+        <v>26</v>
+      </c>
+      <c r="G221" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6208,7 +6198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6219,13 +6209,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6233,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
       </c>
-      <c r="D2" t="s">
-        <v>223</v>
-      </c>
       <c r="E2">
-        <v>0.1803755618066931</v>
+        <v>0.1993996957667545</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6250,16 +6240,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E3">
-        <v>0.2012693444566858</v>
+        <v>0.2004797291658349</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6267,16 +6257,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E4">
-        <v>0.2224066611834363</v>
+        <v>0.2069368734828525</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6284,135 +6274,135 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E5">
-        <v>0.2282663341520851</v>
+        <v>0.2175791114667056</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E6">
-        <v>0.237218408735262</v>
+        <v>0.2224066611834363</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E7">
-        <v>0.2407155020443252</v>
+        <v>0.2229895647176857</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E8">
-        <v>0.2433909292237044</v>
+        <v>0.2339192039749609</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E9">
-        <v>0.2435535647842752</v>
+        <v>0.2407155020443252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E10">
-        <v>0.2506596470127377</v>
+        <v>0.2594411962663014</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E11">
-        <v>0.2518677441260543</v>
+        <v>0.2595985330271336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E12">
-        <v>0.2594411962663014</v>
+        <v>0.2758361759739756</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6420,13 +6410,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E13">
         <v>0.2766376631204631</v>
@@ -6437,13 +6427,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E14">
         <v>0.2788909154324345</v>
@@ -6454,16 +6444,16 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E15">
-        <v>0.2810575632117827</v>
+        <v>0.2968990416942724</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6471,270 +6461,202 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E16">
-        <v>0.2853543301816148</v>
+        <v>0.309772583746858</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E17">
-        <v>0.2968990416942724</v>
+        <v>0.324105132144098</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E18">
-        <v>0.3078050075976265</v>
+        <v>0.362876435155156</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E19">
-        <v>0.309772583746858</v>
+        <v>0.3941494948319081</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E20">
-        <v>0.3249661057287461</v>
+        <v>0.4117188541327191</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E21">
-        <v>0.3768890843944034</v>
+        <v>1.295659671631406</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E22">
-        <v>0.3941494948319081</v>
+        <v>1.36706283095584</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E23">
-        <v>0.4194523210378426</v>
+        <v>1.610776256004674</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E24">
-        <v>0.4732577257060131</v>
+        <v>2.167267059718129</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E25">
-        <v>1.295659671631406</v>
+        <v>2.350201670869566</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E26">
-        <v>1.36706283095584</v>
+        <v>2.634445448250733</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E27">
-        <v>1.610776256004674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>142</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28">
-        <v>2.167267059718129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>143</v>
-      </c>
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29">
-        <v>2.350201670869566</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>150</v>
-      </c>
-      <c r="B30">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30">
-        <v>2.634445448250733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>163</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" t="s">
-        <v>252</v>
-      </c>
-      <c r="E31">
         <v>3.604658384133212</v>
       </c>
     </row>
@@ -6753,252 +6675,252 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7006,7 +6928,7 @@
         <v>67</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>83</v>
@@ -7017,7 +6939,7 @@
         <v>68</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>84</v>
@@ -7025,618 +6947,618 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C69">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>26</v>
       </c>
       <c r="C73">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>26</v>
       </c>
       <c r="C74">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C77">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B80">
         <v>30</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B81">
         <v>30</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/CCRCs_Clustering/Results/Clustering_results_H2_vdc.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_H2_vdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="245">
   <si>
     <t>leaf</t>
   </si>
@@ -147,6 +147,9 @@
     <t xml:space="preserve">"Pmmc3&gt;0.18" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pl2&gt;-0.229" -&gt; "Pg1&lt;=0.433" -&gt; "Pl5&lt;=-0.129" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; </t>
   </si>
   <si>
@@ -156,54 +159,63 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.64" -&gt; "Pmmc3&lt;=-0.452" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&gt;-0.699" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.229" -&gt; "Pg1&lt;=0.433" -&gt; "Pl5&gt;-0.129" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.829" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Pl5&lt;=-0.129" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&gt;-0.699" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&gt;-0.138" -&gt; "Pmmc3&lt;=-0.649" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.459" -&gt; "Qg3&gt;0.19" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.229" -&gt; "Pg1&gt;0.433" -&gt; "Pmmc3&lt;=0.008" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Pl5&gt;-0.129" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.829" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&gt;-0.138" -&gt; "Pmmc3&lt;=-0.649" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.459" -&gt; "Qg3&gt;0.19" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Pl7&gt;-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&lt;=-0.699" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.229" -&gt; "Pg1&gt;0.433" -&gt; "Pmmc3&gt;0.008" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Qg1&gt;0.265" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&gt;0.097" -&gt; "Qg1&lt;=0.318" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Pl7&gt;-0.17" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&lt;=-0.125" -&gt; "Pmmc3&lt;=-0.699" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&gt;-0.125" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&gt;0.097" -&gt; "Qg1&gt;0.318" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Qg1&gt;0.265" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pl5&lt;=-0.138" -&gt; "Ql5&gt;-0.125" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.229" -&gt; "Ql2&lt;=-0.198" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Pl7&lt;=-0.17" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&lt;=0.221" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.64" -&gt; "Pl7&lt;=-0.17" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&gt;-0.172" -&gt; "Pl9&lt;=-0.165" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&gt;0.221" -&gt; "Ql2&lt;=-0.198" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pl2&lt;=-0.31" -&gt; </t>
   </si>
   <si>
@@ -213,7 +225,10 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&lt;=-0.172" -&gt; "Ql7&lt;=-0.143" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&gt;0.221" -&gt; "Ql2&gt;-0.198" -&gt; </t>
+    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&gt;0.221" -&gt; "Ql7&lt;=-0.107" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.229" -&gt; "Ql2&gt;-0.198" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Ql2&lt;=-0.172" -&gt; "Ql7&gt;-0.143" -&gt; </t>
@@ -225,6 +240,9 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.674" -&gt; "Pmmc3&lt;=-0.544" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Qg2&lt;=0.097" -&gt; "Qg3&gt;0.221" -&gt; "Ql7&gt;-0.107" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.874" -&gt; "Pmmc3&lt;=-0.674" -&gt; </t>
   </si>
   <si>
@@ -234,22 +252,25 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.874" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; "Pl9&gt;-0.249" -&gt; "Ql5&gt;-0.102" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; "Pl9&gt;-0.249" -&gt; "Ql5&lt;=-0.102" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.25" -&gt; "Pl9&lt;=-0.249" -&gt; "Ql2&gt;-0.243" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.159" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pl9&gt;-0.249" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.25" -&gt; "Pmmc3&lt;=0.18" -&gt; "Pl9&lt;=-0.249" -&gt; "Ql2&gt;-0.243" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.18" -&gt; "Pl9&lt;=-0.249" -&gt; "Ql2&lt;=-0.243" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; "Pl9&gt;-0.241" -&gt; "Pl2&gt;-0.197" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; "Pl9&gt;-0.241" -&gt; "Pl2&lt;=-0.197" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.159" -&gt; "Pmmc3&lt;=0.17" -&gt; "Pl9&gt;-0.241" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.25" -&gt; "Pl9&lt;=-0.241" -&gt; "Ql2&gt;-0.243" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.25" -&gt; "Pmmc3&lt;=0.17" -&gt; "Pl9&lt;=-0.241" -&gt; "Ql2&gt;-0.243" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.17" -&gt; "Pl9&lt;=-0.241" -&gt; "Ql2&lt;=-0.243" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.17" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.37" -&gt; "Pmmc3&lt;=0.763" -&gt; "Qg3&gt;0.142" -&gt; </t>
@@ -330,81 +351,63 @@
     <t xml:space="preserve">"Ql9&lt;=-0.213" -&gt; "Pl9&gt;-0.317" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.216" -&gt; "Pg1&lt;=0.095" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.216" -&gt; "Pg1&gt;0.095" -&gt; "Pg3&gt;0.217" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl9&lt;=-0.216" -&gt; "Pg1&gt;0.315" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.525" -&gt; "Pmmc3&lt;=-0.31" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.216" -&gt; "Pg1&gt;0.095" -&gt; "Pg3&lt;=0.217" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl9&lt;=-0.216" -&gt; "Pg1&lt;=0.315" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.622" -&gt; "Pl9&lt;=-0.216" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.31" -&gt; "Pmmc3&lt;=-0.083" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&gt;0.254" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&gt;-0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&lt;=-0.208" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&gt;-0.208" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&lt;=0.012" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.081" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&lt;=-0.225" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&gt;0.012" -&gt; "Pg2&lt;=0.119" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.467" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&gt;0.012" -&gt; "Pg2&gt;0.119" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.467" -&gt; "Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.168" -&gt; "Pl9&lt;=-0.241" -&gt; "Qg2&gt;0.047" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.168" -&gt; "Pl9&lt;=-0.241" -&gt; "Qg2&lt;=0.047" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.168" -&gt; "Pmmc3&lt;=0.081" -&gt; "Pl9&lt;=-0.241" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.278" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.31" -&gt; "Pmmc3&lt;=-0.083" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&gt;0.254" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&gt;-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&lt;=-0.208" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&gt;-0.225" -&gt; "Pg3&lt;=0.254" -&gt; "Pl9&gt;-0.208" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&lt;=0.012" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.081" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Ql2&lt;=-0.225" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&gt;0.012" -&gt; "Pg2&lt;=0.119" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.467" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Qg2&gt;0.012" -&gt; "Pg2&gt;0.119" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.467" -&gt; "Pmmc3&lt;=0.081" -&gt; "Pl9&gt;-0.241" -&gt; "Pl9&lt;=-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.168" -&gt; "Pl9&lt;=-0.241" -&gt; "Qg2&gt;0.047" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.168" -&gt; "Pl9&lt;=-0.241" -&gt; "Qg2&lt;=0.047" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.168" -&gt; "Pmmc3&lt;=0.081" -&gt; "Pl9&lt;=-0.241" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.278" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.081" -&gt; "Pmmc3&lt;=0.305" -&gt; </t>
   </si>
   <si>
@@ -645,10 +648,10 @@
     <t>ind value</t>
   </si>
   <si>
-    <t>[48, 49, 50, 55, 53, 54]</t>
-  </si>
-  <si>
-    <t>[91, 61, 51, 46, 81]</t>
+    <t>[48, 50, 53, 55, 49, 54]</t>
+  </si>
+  <si>
+    <t>[91, 61, 81, 46, 51]</t>
   </si>
   <si>
     <t>[47, 52]</t>
@@ -657,7 +660,7 @@
     <t>[64]</t>
   </si>
   <si>
-    <t>[62, 67]</t>
+    <t>[67, 62]</t>
   </si>
   <si>
     <t>[41]</t>
@@ -1105,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1148,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1171,7 +1174,7 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1194,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1217,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1240,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1263,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1286,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1309,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1332,7 +1335,7 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1355,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1378,7 +1381,7 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1401,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1424,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1447,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1470,7 +1473,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1493,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1516,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1539,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1562,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1585,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1608,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1631,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1654,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1677,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1723,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1769,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1792,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1815,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1838,7 +1841,7 @@
         <v>25</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1884,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1930,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1953,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -1999,7 +2002,7 @@
         <v>17</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
@@ -2010,19 +2013,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>0.3941494948319081</v>
+        <v>0.3905737646051735</v>
       </c>
       <c r="D40">
-        <v>0.1194524285047756</v>
+        <v>0.01005822229038683</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
         <v>43</v>
@@ -2033,19 +2036,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>0.3976234931009144</v>
+        <v>0.3941494948319081</v>
       </c>
       <c r="D41">
-        <v>0.1104074086870659</v>
+        <v>0.1194524285047756</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
         <v>44</v>
@@ -2056,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.3979662668423101</v>
+        <v>0.3976234931009144</v>
       </c>
       <c r="D42">
-        <v>0.101484358639879</v>
+        <v>0.1104074086870659</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F42">
         <v>13</v>
@@ -2079,19 +2082,19 @@
         <v>41</v>
       </c>
       <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0.3979662668423101</v>
+      </c>
+      <c r="D43">
+        <v>0.101484358639879</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
         <v>2</v>
-      </c>
-      <c r="C43">
-        <v>0.3984545343263324</v>
-      </c>
-      <c r="D43">
-        <v>0.01451128143203788</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -2137,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>47</v>
@@ -2148,19 +2151,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>0.4102392397128709</v>
+        <v>0.4025126622595912</v>
       </c>
       <c r="D46">
-        <v>0.0138692906615498</v>
+        <v>0.009169075001745887</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -2183,7 +2186,7 @@
         <v>25</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -2194,19 +2197,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>0.4165051356212118</v>
+        <v>0.4142160737686504</v>
       </c>
       <c r="D48">
-        <v>0.08846819179929707</v>
+        <v>0.002025971444838209</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -2217,19 +2220,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.4174502490153019</v>
+        <v>0.4165051356212118</v>
       </c>
       <c r="D49">
-        <v>0.1079931767343252</v>
+        <v>0.08846819179929707</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -2240,19 +2243,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>0.4252170647188431</v>
+        <v>0.4174502490153019</v>
       </c>
       <c r="D50">
-        <v>0.01299383933405618</v>
+        <v>0.1079931767343252</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2263,19 +2266,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>0.4274898694356405</v>
+        <v>0.4193968911649881</v>
       </c>
       <c r="D51">
-        <v>0.08888288017035625</v>
+        <v>0.01109354150686966</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2286,22 +2289,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0.4283211940238591</v>
+        <v>0.4256923946194303</v>
       </c>
       <c r="D52">
-        <v>0.01089555380137785</v>
+        <v>0.00468498245197741</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2309,22 +2312,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>0.4312227187827902</v>
+        <v>0.4274898694356405</v>
       </c>
       <c r="D53">
-        <v>0.08448627424800433</v>
+        <v>0.08888288017035625</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2332,22 +2335,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>0.4358000869279941</v>
+        <v>0.4283211940238591</v>
       </c>
       <c r="D54">
-        <v>0.01573799194762435</v>
+        <v>0.01089555380137785</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2355,19 +2358,19 @@
         <v>53</v>
       </c>
       <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.4312227187827902</v>
+      </c>
+      <c r="D55">
+        <v>0.08448627424800433</v>
+      </c>
+      <c r="E55">
         <v>8</v>
       </c>
-      <c r="C55">
-        <v>0.4375138173531434</v>
-      </c>
-      <c r="D55">
-        <v>0.1084401349304773</v>
-      </c>
-      <c r="E55">
-        <v>15</v>
-      </c>
       <c r="F55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
         <v>56</v>
@@ -2378,19 +2381,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>0.4460027753757371</v>
+        <v>0.4331433994733933</v>
       </c>
       <c r="D56">
-        <v>0.07765965991036868</v>
+        <v>0.01534717419134133</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F56">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
         <v>57</v>
@@ -2401,22 +2404,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>0.4477909301156721</v>
+        <v>0.4375138173531434</v>
       </c>
       <c r="D57">
-        <v>0.0162576717098914</v>
+        <v>0.1084401349304773</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2424,22 +2427,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C58">
-        <v>0.4527325158274442</v>
+        <v>0.4385274118877863</v>
       </c>
       <c r="D58">
-        <v>0.0136781404675102</v>
+        <v>0.001851489553682379</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2447,22 +2450,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>0.4572022540120333</v>
+        <v>0.4460027753757371</v>
       </c>
       <c r="D59">
-        <v>0.08169236409481931</v>
+        <v>0.07765965991036868</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2470,22 +2473,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>0.4684319928085296</v>
+        <v>0.4477909301156721</v>
       </c>
       <c r="D60">
-        <v>0.009830776530433013</v>
+        <v>0.0162576717098914</v>
       </c>
       <c r="E60">
         <v>8</v>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2493,16 +2496,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>0.4695813310786892</v>
+        <v>0.4508311972410285</v>
       </c>
       <c r="D61">
-        <v>0.01819414748847194</v>
+        <v>0.007302577947512137</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>17</v>
@@ -2516,19 +2519,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>0.4835610025405837</v>
+        <v>0.4569957383436261</v>
       </c>
       <c r="D62">
-        <v>0.08632546633885657</v>
+        <v>0.01559198758134594</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G62" t="s">
         <v>62</v>
@@ -2539,19 +2542,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>0.4851597292873503</v>
+        <v>0.4572022540120333</v>
       </c>
       <c r="D63">
-        <v>0.01216396078196359</v>
+        <v>0.08169236409481931</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F63">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
         <v>63</v>
@@ -2562,19 +2565,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>0.4872283067486123</v>
+        <v>0.4664731614335987</v>
       </c>
       <c r="D64">
-        <v>0.01040784577603939</v>
+        <v>0.001630140555704918</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
         <v>64</v>
@@ -2585,22 +2588,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>0.5088489650201666</v>
+        <v>0.4684319928085296</v>
       </c>
       <c r="D65">
-        <v>0.02057421499100725</v>
+        <v>0.009830776530433013</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2608,22 +2611,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.5116360746739713</v>
+        <v>0.4835610025405837</v>
       </c>
       <c r="D66">
-        <v>0.0369447870806284</v>
+        <v>0.08632546633885657</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2631,22 +2634,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C67">
-        <v>0.5120156711948864</v>
+        <v>0.4851597292873503</v>
       </c>
       <c r="D67">
-        <v>0.01265281070153157</v>
+        <v>0.01216396078196359</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2654,22 +2657,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>0.5135652206478306</v>
+        <v>0.4872283067486123</v>
       </c>
       <c r="D68">
-        <v>0.01173099283346913</v>
+        <v>0.01040784577603939</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2677,22 +2680,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>0.5343091721856933</v>
+        <v>0.4895021425425727</v>
       </c>
       <c r="D69">
-        <v>0.01024964326976906</v>
+        <v>0.01051158907401705</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2700,22 +2703,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.5608920357445593</v>
+        <v>0.4930586111950793</v>
       </c>
       <c r="D70">
-        <v>0.02140841254333892</v>
+        <v>0.02156008993067489</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2723,22 +2726,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>0.5705610156437142</v>
+        <v>0.5088489650201666</v>
       </c>
       <c r="D71">
-        <v>0.01780914051177953</v>
+        <v>0.02057421499100725</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2746,22 +2749,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>0.627104904639248</v>
+        <v>0.5120156711948864</v>
       </c>
       <c r="D72">
-        <v>0.03867866279305671</v>
+        <v>0.01265281070153157</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2769,22 +2772,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>0.6310462607205738</v>
+        <v>0.5135652206478306</v>
       </c>
       <c r="D73">
-        <v>0.1981640855855581</v>
+        <v>0.01173099283346913</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2792,22 +2795,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>0.6460051148671876</v>
+        <v>0.5343091721856933</v>
       </c>
       <c r="D74">
-        <v>0.05104253939765648</v>
+        <v>0.01024964326976906</v>
       </c>
       <c r="E74">
         <v>6</v>
       </c>
       <c r="F74">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2815,22 +2818,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>0.6689932931698273</v>
+        <v>0.5553058544703457</v>
       </c>
       <c r="D75">
-        <v>0.03848362966347645</v>
+        <v>0.03782367193890005</v>
       </c>
       <c r="E75">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2838,22 +2841,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>0.6753216787911431</v>
+        <v>0.5608920357445593</v>
       </c>
       <c r="D76">
-        <v>0.03731357462670011</v>
+        <v>0.02140841254333892</v>
       </c>
       <c r="E76">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2861,22 +2864,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>0.6800989578148761</v>
+        <v>0.5705610156437142</v>
       </c>
       <c r="D77">
-        <v>0.04038569331176389</v>
+        <v>0.01780914051177953</v>
       </c>
       <c r="E77">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2884,22 +2887,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.6833552093896498</v>
+        <v>0.627104904639248</v>
       </c>
       <c r="D78">
-        <v>0.04433505105215271</v>
+        <v>0.03867866279305671</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2907,19 +2910,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>0.6925188086380867</v>
+        <v>0.6310462607205738</v>
       </c>
       <c r="D79">
-        <v>0.04518540520248257</v>
+        <v>0.1981640855855581</v>
       </c>
       <c r="E79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
         <v>76</v>
@@ -2930,19 +2933,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>0.6997893380483385</v>
+        <v>0.6460051148671876</v>
       </c>
       <c r="D80">
-        <v>0.04137013147735986</v>
+        <v>0.05104253939765648</v>
       </c>
       <c r="E80">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F80">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
         <v>77</v>
@@ -2953,22 +2956,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>0.752856034822466</v>
+        <v>0.8219708872641844</v>
       </c>
       <c r="D81">
-        <v>0.08066503139301284</v>
+        <v>0.2724413460995772</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2976,22 +2979,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>1.131440972302286</v>
+        <v>0.8298781672481426</v>
       </c>
       <c r="D82">
-        <v>0.1196661604788225</v>
+        <v>0.27647284384347</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2999,22 +3002,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>1.134878338580095</v>
+        <v>0.8346269932242306</v>
       </c>
       <c r="D83">
-        <v>0.1238100193470954</v>
+        <v>0.2703519307216943</v>
       </c>
       <c r="E83">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3022,22 +3025,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>1.136539623259747</v>
+        <v>0.834823375521644</v>
       </c>
       <c r="D84">
-        <v>0.1198679274684081</v>
+        <v>0.2747161776045385</v>
       </c>
       <c r="E84">
         <v>32</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3045,22 +3048,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>1.143360977150068</v>
+        <v>0.8432092076347933</v>
       </c>
       <c r="D85">
-        <v>0.1206436244414256</v>
+        <v>0.2694365947032449</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3068,22 +3071,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>1.145573009754882</v>
+        <v>0.8512636259996069</v>
       </c>
       <c r="D86">
-        <v>0.1278895790339582</v>
+        <v>0.2689705652461373</v>
       </c>
       <c r="E86">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3091,22 +3094,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>1.148881336329146</v>
+        <v>0.9235106493056411</v>
       </c>
       <c r="D87">
-        <v>0.1149110886445916</v>
+        <v>0.2694285149876357</v>
       </c>
       <c r="E87">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3114,22 +3117,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>1.156389320214817</v>
+        <v>1.131440972302286</v>
       </c>
       <c r="D88">
-        <v>0.1144312305471741</v>
+        <v>0.1196661604788225</v>
       </c>
       <c r="E88">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3137,22 +3140,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>1.160852090484906</v>
+        <v>1.134878338580095</v>
       </c>
       <c r="D89">
-        <v>0.1329367635213218</v>
+        <v>0.1238100193470954</v>
       </c>
       <c r="E89">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3160,22 +3163,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>1.168470148010744</v>
+        <v>1.136539623259747</v>
       </c>
       <c r="D90">
-        <v>0.01217573599048327</v>
+        <v>0.1198679274684081</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F90">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3183,22 +3186,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>1.17532079469131</v>
+        <v>1.143360977150068</v>
       </c>
       <c r="D91">
-        <v>0.02560643711747523</v>
+        <v>0.1206436244414256</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F91">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3206,22 +3209,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>1.18466419299499</v>
+        <v>1.145573009754882</v>
       </c>
       <c r="D92">
-        <v>0.02199755430028953</v>
+        <v>0.1278895790339582</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F92">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3229,22 +3232,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>1.185968375937257</v>
+        <v>1.148881336329146</v>
       </c>
       <c r="D93">
-        <v>0.03849094861314223</v>
+        <v>0.1149110886445916</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F93">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3252,22 +3255,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>1.188639157909302</v>
+        <v>1.156389320214817</v>
       </c>
       <c r="D94">
-        <v>0.05637425396011132</v>
+        <v>0.1144312305471741</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F94">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3275,22 +3278,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>1.193037078314283</v>
+        <v>1.160852090484906</v>
       </c>
       <c r="D95">
-        <v>0.01216936702733823</v>
+        <v>0.1329367635213218</v>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F95">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3298,22 +3301,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C96">
-        <v>1.196899150210972</v>
+        <v>1.168470148010744</v>
       </c>
       <c r="D96">
-        <v>0.05227060033875085</v>
+        <v>0.01217573599048327</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3321,22 +3324,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>1.202533576275706</v>
+        <v>1.17532079469131</v>
       </c>
       <c r="D97">
-        <v>0.05283655336372958</v>
+        <v>0.02560643711747523</v>
       </c>
       <c r="E97">
         <v>8</v>
       </c>
       <c r="F97">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3344,22 +3347,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>1.210810289502595</v>
+        <v>1.18466419299499</v>
       </c>
       <c r="D98">
-        <v>0.01978950477738685</v>
+        <v>0.02199755430028953</v>
       </c>
       <c r="E98">
         <v>10</v>
       </c>
       <c r="F98">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3367,22 +3370,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>1.234469331664251</v>
+        <v>1.185968375937257</v>
       </c>
       <c r="D99">
-        <v>0.06130167134824361</v>
+        <v>0.03849094861314223</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3390,22 +3393,22 @@
         <v>98</v>
       </c>
       <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>1.188639157909302</v>
+      </c>
+      <c r="D100">
+        <v>0.05637425396011132</v>
+      </c>
+      <c r="E100">
         <v>8</v>
       </c>
-      <c r="C100">
-        <v>1.242638149925571</v>
-      </c>
-      <c r="D100">
-        <v>0.0391620208501947</v>
-      </c>
-      <c r="E100">
-        <v>10</v>
-      </c>
       <c r="F100">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3413,22 +3416,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C101">
-        <v>1.247275006710236</v>
+        <v>1.193037078314283</v>
       </c>
       <c r="D101">
-        <v>0.04314311667806948</v>
+        <v>0.01216936702733823</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3436,22 +3439,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>1.248855422371333</v>
+        <v>1.196899150210972</v>
       </c>
       <c r="D102">
-        <v>0.04393749648871509</v>
+        <v>0.05227060033875085</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3459,22 +3462,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>1.257277685007207</v>
+        <v>1.202533576275706</v>
       </c>
       <c r="D103">
-        <v>0.04215044221011733</v>
+        <v>0.05283655336372958</v>
       </c>
       <c r="E103">
         <v>8</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3482,22 +3485,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>1.259401819518575</v>
+        <v>1.210810289502595</v>
       </c>
       <c r="D104">
-        <v>0.01765408047522283</v>
+        <v>0.01978950477738685</v>
       </c>
       <c r="E104">
         <v>10</v>
       </c>
       <c r="F104">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3505,22 +3508,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>1.263695482379965</v>
+        <v>1.234469331664251</v>
       </c>
       <c r="D105">
-        <v>0.04630564817002187</v>
+        <v>0.06130167134824361</v>
       </c>
       <c r="E105">
         <v>8</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3528,22 +3531,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>1.265906330712416</v>
+        <v>1.242638149925571</v>
       </c>
       <c r="D106">
-        <v>0.04397624929263384</v>
+        <v>0.0391620208501947</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3551,22 +3554,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C107">
-        <v>1.282215745502011</v>
+        <v>1.247275006710236</v>
       </c>
       <c r="D107">
-        <v>0.04467920253161438</v>
+        <v>0.04314311667806948</v>
       </c>
       <c r="E107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3574,22 +3577,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>1.283372925265395</v>
+        <v>1.248855422371333</v>
       </c>
       <c r="D108">
-        <v>0.003377217239575998</v>
+        <v>0.04393749648871509</v>
       </c>
       <c r="E108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3597,22 +3600,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>1.289754106916946</v>
+        <v>1.257277685007207</v>
       </c>
       <c r="D109">
-        <v>0.005847549014450883</v>
+        <v>0.04215044221011733</v>
       </c>
       <c r="E109">
         <v>8</v>
       </c>
       <c r="F109">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3620,22 +3623,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110">
-        <v>1.295536918091698</v>
+        <v>1.259401819518575</v>
       </c>
       <c r="D110">
-        <v>0.003055180684763158</v>
+        <v>0.01765408047522283</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3643,13 +3646,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C111">
-        <v>1.295659671631406</v>
+        <v>1.263695482379965</v>
       </c>
       <c r="D111">
-        <v>0.01968565419446685</v>
+        <v>0.04630564817002187</v>
       </c>
       <c r="E111">
         <v>8</v>
@@ -3658,7 +3661,7 @@
         <v>24</v>
       </c>
       <c r="G111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3666,22 +3669,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>1.298363586667872</v>
+        <v>1.265906330712416</v>
       </c>
       <c r="D112">
-        <v>0.01213371734937369</v>
+        <v>0.04397624929263384</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3689,22 +3692,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>1.299516626653233</v>
+        <v>1.282215745502011</v>
       </c>
       <c r="D113">
-        <v>0.004497309441572057</v>
+        <v>0.04467920253161438</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3712,22 +3715,22 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>1.306891821272566</v>
+        <v>1.295659671631406</v>
       </c>
       <c r="D114">
-        <v>0.01037921057094567</v>
+        <v>0.01968565419446685</v>
       </c>
       <c r="E114">
         <v>8</v>
       </c>
       <c r="F114">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3735,22 +3738,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C115">
-        <v>1.319120279429316</v>
+        <v>1.36706283095584</v>
       </c>
       <c r="D115">
-        <v>0.01137407340656327</v>
+        <v>0.02539229900776271</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G115" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3761,19 +3764,19 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>1.36706283095584</v>
+        <v>1.38160871537978</v>
       </c>
       <c r="D116">
-        <v>0.02539229900776271</v>
+        <v>0.004219453202211536</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3781,22 +3784,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>1.38160871537978</v>
+        <v>1.390197052933506</v>
       </c>
       <c r="D117">
-        <v>0.004219453202211536</v>
+        <v>0.00199034337387377</v>
       </c>
       <c r="E117">
         <v>3</v>
       </c>
       <c r="F117">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3804,22 +3807,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>1.390197052933506</v>
+        <v>1.400895901980003</v>
       </c>
       <c r="D118">
-        <v>0.00199034337387377</v>
+        <v>0.001382148536474822</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="F118">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3827,22 +3830,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>1.400895901980003</v>
+        <v>1.405764385631134</v>
       </c>
       <c r="D119">
-        <v>0.001382148536474822</v>
+        <v>0.003798930557596945</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
       <c r="F119">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3850,22 +3853,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>1.405764385631134</v>
+        <v>1.408889218074554</v>
       </c>
       <c r="D120">
-        <v>0.003798930557596945</v>
+        <v>0.01130981141741148</v>
       </c>
       <c r="E120">
         <v>3</v>
       </c>
       <c r="F120">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3873,22 +3876,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>1.408889218074554</v>
+        <v>1.415559103807459</v>
       </c>
       <c r="D121">
-        <v>0.01130981141741148</v>
+        <v>0.01508679869963776</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F121">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G121" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3896,22 +3899,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>1.415559103807459</v>
+        <v>1.422580207309909</v>
       </c>
       <c r="D122">
-        <v>0.01508679869963776</v>
+        <v>0.008530793982624225</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F122">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3919,22 +3922,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>1.422580207309909</v>
+        <v>1.422943920494792</v>
       </c>
       <c r="D123">
-        <v>0.008530793982624225</v>
+        <v>0.06100459576366148</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F123">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3942,22 +3945,22 @@
         <v>122</v>
       </c>
       <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>1.427872191781796</v>
+      </c>
+      <c r="D124">
+        <v>0.005194030279093777</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
         <v>11</v>
       </c>
-      <c r="C124">
-        <v>1.422943920494792</v>
-      </c>
-      <c r="D124">
-        <v>0.06100459576366148</v>
-      </c>
-      <c r="E124">
-        <v>16</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
       <c r="G124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3965,22 +3968,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>1.427872191781796</v>
+        <v>1.432116036104597</v>
       </c>
       <c r="D125">
-        <v>0.005194030279093777</v>
+        <v>0.06023082167724831</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F125">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3988,22 +3991,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>1.432116036104597</v>
+        <v>1.436644070888779</v>
       </c>
       <c r="D126">
-        <v>0.06023082167724831</v>
+        <v>0.003618622040397537</v>
       </c>
       <c r="E126">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4011,22 +4014,22 @@
         <v>125</v>
       </c>
       <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>1.43913852268445</v>
+      </c>
+      <c r="D127">
+        <v>0.06785195386237433</v>
+      </c>
+      <c r="E127">
+        <v>12</v>
+      </c>
+      <c r="F127">
         <v>14</v>
       </c>
-      <c r="C127">
-        <v>1.436644070888779</v>
-      </c>
-      <c r="D127">
-        <v>0.003618622040397537</v>
-      </c>
-      <c r="E127">
-        <v>4</v>
-      </c>
-      <c r="F127">
-        <v>29</v>
-      </c>
       <c r="G127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4034,22 +4037,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C128">
-        <v>1.43913852268445</v>
+        <v>1.444260109323463</v>
       </c>
       <c r="D128">
-        <v>0.06785195386237433</v>
+        <v>0.06234815671629675</v>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4057,22 +4060,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>1.444260109323463</v>
+        <v>1.450113391922618</v>
       </c>
       <c r="D129">
-        <v>0.06234815671629675</v>
+        <v>0.06471879767221922</v>
       </c>
       <c r="E129">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4080,22 +4083,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>1.450113391922618</v>
+        <v>1.456090382405536</v>
       </c>
       <c r="D130">
-        <v>0.06471879767221922</v>
+        <v>0.07071191172900772</v>
       </c>
       <c r="E130">
         <v>12</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4103,22 +4106,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C131">
-        <v>1.456090382405536</v>
+        <v>1.465899388886643</v>
       </c>
       <c r="D131">
-        <v>0.07071191172900772</v>
+        <v>0.07326668345616748</v>
       </c>
       <c r="E131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4126,22 +4129,22 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>1.465899388886643</v>
+        <v>1.491082574281716</v>
       </c>
       <c r="D132">
-        <v>0.07326668345616748</v>
+        <v>0.07818802321972762</v>
       </c>
       <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
         <v>14</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
       <c r="G132" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4149,22 +4152,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C133">
-        <v>1.491082574281716</v>
+        <v>1.491328331179611</v>
       </c>
       <c r="D133">
-        <v>0.07818802321972762</v>
+        <v>0.01490369169963703</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G133" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4172,22 +4175,22 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>1.491328331179611</v>
+        <v>1.610776256004674</v>
       </c>
       <c r="D134">
-        <v>0.01490369169963703</v>
+        <v>0.0513984363567286</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F134">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G134" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4195,22 +4198,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>1.610776256004674</v>
+        <v>1.76477394255099</v>
       </c>
       <c r="D135">
-        <v>0.0513984363567286</v>
+        <v>0.4897923336203601</v>
       </c>
       <c r="E135">
         <v>12</v>
       </c>
       <c r="F135">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G135" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4218,22 +4221,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>1.76477394255099</v>
+        <v>1.801847130754768</v>
       </c>
       <c r="D136">
-        <v>0.4897923336203601</v>
+        <v>0.5537664432081718</v>
       </c>
       <c r="E136">
         <v>12</v>
       </c>
       <c r="F136">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4241,22 +4244,22 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>1.801847130754768</v>
+        <v>1.842781486966504</v>
       </c>
       <c r="D137">
-        <v>0.5537664432081718</v>
+        <v>0.6056688580423553</v>
       </c>
       <c r="E137">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F137">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4264,22 +4267,22 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C138">
-        <v>1.842781486966504</v>
+        <v>1.856531298097779</v>
       </c>
       <c r="D138">
-        <v>0.6056688580423553</v>
+        <v>0.08473241158089352</v>
       </c>
       <c r="E138">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4287,22 +4290,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C139">
-        <v>1.856531298097779</v>
+        <v>1.857668014169313</v>
       </c>
       <c r="D139">
-        <v>0.08473241158089352</v>
+        <v>0.615500566765434</v>
       </c>
       <c r="E139">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F139">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4310,22 +4313,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>1.857668014169313</v>
+        <v>1.900570860830973</v>
       </c>
       <c r="D140">
-        <v>0.615500566765434</v>
+        <v>0.6632441871714181</v>
       </c>
       <c r="E140">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4333,22 +4336,22 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C141">
-        <v>1.900570860830973</v>
+        <v>1.945817062349573</v>
       </c>
       <c r="D141">
-        <v>0.6632441871714181</v>
+        <v>0.7735711191543699</v>
       </c>
       <c r="E141">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4356,22 +4359,22 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>1.945817062349573</v>
+        <v>1.991719765511187</v>
       </c>
       <c r="D142">
-        <v>0.7735711191543699</v>
+        <v>0.7816481527235269</v>
       </c>
       <c r="E142">
         <v>12</v>
       </c>
       <c r="F142">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G142" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4379,22 +4382,22 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>1.991719765511187</v>
+        <v>2.13503943595386</v>
       </c>
       <c r="D143">
-        <v>0.7816481527235269</v>
+        <v>0.9795225743369037</v>
       </c>
       <c r="E143">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F143">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G143" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4402,22 +4405,22 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C144">
-        <v>2.13503943595386</v>
+        <v>2.167267059718129</v>
       </c>
       <c r="D144">
-        <v>0.9795225743369037</v>
+        <v>0.08096031442293705</v>
       </c>
       <c r="E144">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F144">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4425,22 +4428,22 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145">
-        <v>2.167267059718129</v>
+        <v>2.350201670869566</v>
       </c>
       <c r="D145">
-        <v>0.08096031442293705</v>
+        <v>0.09599813487912429</v>
       </c>
       <c r="E145">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F145">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4448,22 +4451,22 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>2.350201670869566</v>
+        <v>2.449700812846212</v>
       </c>
       <c r="D146">
-        <v>0.09599813487912429</v>
+        <v>0.04057911986971519</v>
       </c>
       <c r="E146">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F146">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4471,22 +4474,22 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>2.449700812846212</v>
+        <v>2.475230360051592</v>
       </c>
       <c r="D147">
-        <v>0.04057911986971519</v>
+        <v>0.09570588979761141</v>
       </c>
       <c r="E147">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4494,22 +4497,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>2.475230360051592</v>
+        <v>2.506276080243591</v>
       </c>
       <c r="D148">
-        <v>0.09570588979761141</v>
+        <v>0.311608977498929</v>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F148">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4517,22 +4520,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>2.506276080243591</v>
+        <v>2.548022099117817</v>
       </c>
       <c r="D149">
-        <v>0.311608977498929</v>
+        <v>0.03922469362642256</v>
       </c>
       <c r="E149">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F149">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4540,22 +4543,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>2.548022099117817</v>
+        <v>2.569258871693519</v>
       </c>
       <c r="D150">
-        <v>0.03922469362642256</v>
+        <v>0.09697439692682581</v>
       </c>
       <c r="E150">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F150">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4563,22 +4566,22 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>2.569258871693519</v>
+        <v>2.62021525292361</v>
       </c>
       <c r="D151">
-        <v>0.09697439692682581</v>
+        <v>0.04851952460117442</v>
       </c>
       <c r="E151">
+        <v>16</v>
+      </c>
+      <c r="F151">
         <v>10</v>
       </c>
-      <c r="F151">
-        <v>6</v>
-      </c>
       <c r="G151" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4586,22 +4589,22 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C152">
-        <v>2.62021525292361</v>
+        <v>2.634445448250733</v>
       </c>
       <c r="D152">
-        <v>0.04851952460117442</v>
+        <v>0.1009851301157922</v>
       </c>
       <c r="E152">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4609,22 +4612,22 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C153">
-        <v>2.634445448250733</v>
+        <v>2.687270145462434</v>
       </c>
       <c r="D153">
-        <v>0.1009851301157922</v>
+        <v>0.3489254450562974</v>
       </c>
       <c r="E153">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F153">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4632,22 +4635,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C154">
-        <v>2.687270145462434</v>
+        <v>2.711742691277318</v>
       </c>
       <c r="D154">
-        <v>0.3489254450562974</v>
+        <v>0.06989460128966964</v>
       </c>
       <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
         <v>18</v>
       </c>
-      <c r="F154">
-        <v>14</v>
-      </c>
       <c r="G154" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4655,22 +4658,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C155">
-        <v>2.711742691277318</v>
+        <v>2.764056586232648</v>
       </c>
       <c r="D155">
-        <v>0.06989460128966964</v>
+        <v>0.07755375587476737</v>
       </c>
       <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155">
         <v>10</v>
       </c>
-      <c r="F155">
-        <v>6</v>
-      </c>
       <c r="G155" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4678,22 +4681,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C156">
-        <v>2.764056586232648</v>
+        <v>2.837414068440928</v>
       </c>
       <c r="D156">
-        <v>0.07755375587476737</v>
+        <v>0.09986293069644543</v>
       </c>
       <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
         <v>18</v>
       </c>
-      <c r="F156">
-        <v>9</v>
-      </c>
       <c r="G156" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4701,22 +4704,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>2.837414068440928</v>
+        <v>2.859054257804478</v>
       </c>
       <c r="D157">
-        <v>0.09986293069644543</v>
+        <v>0.08452784753144789</v>
       </c>
       <c r="E157">
+        <v>16</v>
+      </c>
+      <c r="F157">
         <v>10</v>
       </c>
-      <c r="F157">
-        <v>6</v>
-      </c>
       <c r="G157" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4724,22 +4727,22 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C158">
-        <v>2.859054257804478</v>
+        <v>2.906491707830603</v>
       </c>
       <c r="D158">
-        <v>0.08452784753144789</v>
+        <v>0.1945048478244278</v>
       </c>
       <c r="E158">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F158">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4747,22 +4750,22 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>2.906491707830603</v>
+        <v>2.918202848283007</v>
       </c>
       <c r="D159">
-        <v>0.1945048478244278</v>
+        <v>0.3594341803761498</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F159">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4770,22 +4773,22 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C160">
-        <v>2.918202848283007</v>
+        <v>3.011268193367252</v>
       </c>
       <c r="D160">
-        <v>0.3594341803761498</v>
+        <v>0.1226728690226516</v>
       </c>
       <c r="E160">
         <v>16</v>
       </c>
       <c r="F160">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4793,22 +4796,22 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>3.011268193367252</v>
+        <v>3.049162940714846</v>
       </c>
       <c r="D161">
-        <v>0.1226728690226516</v>
+        <v>0.1146856911092424</v>
       </c>
       <c r="E161">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4816,22 +4819,22 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C162">
-        <v>3.049162940714846</v>
+        <v>3.252659129995573</v>
       </c>
       <c r="D162">
-        <v>0.1146856911092424</v>
+        <v>0.2050721212041119</v>
       </c>
       <c r="E162">
+        <v>24</v>
+      </c>
+      <c r="F162">
         <v>10</v>
       </c>
-      <c r="F162">
-        <v>6</v>
-      </c>
       <c r="G162" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4839,22 +4842,22 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>3.252659129995573</v>
+        <v>3.253482113770772</v>
       </c>
       <c r="D163">
-        <v>0.2050721212041119</v>
+        <v>0.4229084168023888</v>
       </c>
       <c r="E163">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F163">
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4862,22 +4865,22 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164">
-        <v>3.253482113770772</v>
+        <v>3.305103406858062</v>
       </c>
       <c r="D164">
-        <v>0.4229084168023888</v>
+        <v>0.08852492695270732</v>
       </c>
       <c r="E164">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F164">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4885,22 +4888,22 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>3.305103406858062</v>
+        <v>3.604658384133212</v>
       </c>
       <c r="D165">
-        <v>0.08852492695270732</v>
+        <v>0.3475297759139165</v>
       </c>
       <c r="E165">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F165">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4911,19 +4914,19 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>3.604658384133212</v>
+        <v>3.683758188171145</v>
       </c>
       <c r="D166">
-        <v>0.3475297759139165</v>
+        <v>0.5084153178168249</v>
       </c>
       <c r="E166">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F166">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4931,22 +4934,22 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C167">
-        <v>3.683758188171145</v>
+        <v>3.757244758537867</v>
       </c>
       <c r="D167">
-        <v>0.5084153178168249</v>
+        <v>0.3922440077930566</v>
       </c>
       <c r="E167">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F167">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4954,22 +4957,22 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>3.757244758537867</v>
+        <v>4.0156293456049</v>
       </c>
       <c r="D168">
-        <v>0.3922440077930566</v>
+        <v>0.4196084908648238</v>
       </c>
       <c r="E168">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F168">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G168" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4977,22 +4980,22 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C169">
-        <v>4.0156293456049</v>
+        <v>4.270553621469658</v>
       </c>
       <c r="D169">
-        <v>0.4196084908648238</v>
+        <v>0.474857630477687</v>
       </c>
       <c r="E169">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F169">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5003,19 +5006,19 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>4.270553621469658</v>
+        <v>4.847769686707415</v>
       </c>
       <c r="D170">
-        <v>0.474857630477687</v>
+        <v>0.7637559309925039</v>
       </c>
       <c r="E170">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F170">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5023,22 +5026,22 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C171">
-        <v>4.847769686707415</v>
+        <v>5.123933624145518</v>
       </c>
       <c r="D171">
-        <v>0.7637559309925039</v>
+        <v>0.3729321173261366</v>
       </c>
       <c r="E171">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F171">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G171" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5046,22 +5049,22 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>5.123933624145518</v>
+        <v>5.192482020568396</v>
       </c>
       <c r="D172">
-        <v>0.3729321173261366</v>
+        <v>0.4662465261449789</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F172">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5069,22 +5072,22 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173">
-        <v>5.192482020568396</v>
+        <v>5.557157099182553</v>
       </c>
       <c r="D173">
-        <v>0.4662465261449789</v>
+        <v>0.4654444597431641</v>
       </c>
       <c r="E173">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5092,22 +5095,22 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>5.557157099182553</v>
+        <v>5.690771378977781</v>
       </c>
       <c r="D174">
-        <v>0.4654444597431641</v>
+        <v>0.339117475653718</v>
       </c>
       <c r="E174">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G174" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5115,22 +5118,22 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175">
-        <v>5.690771378977781</v>
+        <v>5.718484434992743</v>
       </c>
       <c r="D175">
-        <v>0.339117475653718</v>
+        <v>0.4754679139010056</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F175">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5138,22 +5141,22 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>5.718484434992743</v>
+        <v>5.839659258360233</v>
       </c>
       <c r="D176">
-        <v>0.4754679139010056</v>
+        <v>0.1810983475329799</v>
       </c>
       <c r="E176">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G176" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5161,22 +5164,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C177">
-        <v>5.839659258360233</v>
+        <v>6.061020949209752</v>
       </c>
       <c r="D177">
-        <v>0.1810983475329799</v>
+        <v>0.5308974920087888</v>
       </c>
       <c r="E177">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F177">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5184,22 +5187,22 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C178">
-        <v>6.061020949209752</v>
+        <v>6.192966749475477</v>
       </c>
       <c r="D178">
-        <v>0.5308974920087888</v>
+        <v>0.2043368352833178</v>
       </c>
       <c r="E178">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G178" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5207,22 +5210,22 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179">
-        <v>6.192966749475477</v>
+        <v>6.210645501048911</v>
       </c>
       <c r="D179">
-        <v>0.2043368352833178</v>
+        <v>0.266784895637894</v>
       </c>
       <c r="E179">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F179">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G179" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5230,22 +5233,22 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>6.210645501048911</v>
+        <v>6.273189368936138</v>
       </c>
       <c r="D180">
-        <v>0.266784895637894</v>
+        <v>0.2551654088783001</v>
       </c>
       <c r="E180">
         <v>12</v>
       </c>
       <c r="F180">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G180" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5253,22 +5256,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C181">
-        <v>6.273189368936138</v>
+        <v>6.28324874492213</v>
       </c>
       <c r="D181">
-        <v>0.2551654088783001</v>
+        <v>4.298671439524307</v>
       </c>
       <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181">
         <v>12</v>
       </c>
-      <c r="F181">
-        <v>20</v>
-      </c>
       <c r="G181" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5276,22 +5279,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>6.28324874492213</v>
+        <v>6.295413089230927</v>
       </c>
       <c r="D182">
-        <v>4.298671439524307</v>
+        <v>0.823797676411185</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F182">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5302,19 +5305,19 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>6.295413089230927</v>
+        <v>6.306593563121832</v>
       </c>
       <c r="D183">
-        <v>0.823797676411185</v>
+        <v>1.332563739270992</v>
       </c>
       <c r="E183">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5322,22 +5325,22 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C184">
-        <v>6.306593563121832</v>
+        <v>6.417809433729699</v>
       </c>
       <c r="D184">
-        <v>1.332563739270992</v>
+        <v>0.234298830676479</v>
       </c>
       <c r="E184">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F184">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5345,22 +5348,22 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C185">
-        <v>6.417809433729699</v>
+        <v>6.59627897596275</v>
       </c>
       <c r="D185">
-        <v>0.234298830676479</v>
+        <v>0.1868175236726492</v>
       </c>
       <c r="E185">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F185">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G185" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5368,22 +5371,22 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>6.59627897596275</v>
+        <v>6.639025201698703</v>
       </c>
       <c r="D186">
-        <v>0.1868175236726492</v>
+        <v>0.2459836151732738</v>
       </c>
       <c r="E186">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G186" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5391,22 +5394,22 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C187">
-        <v>6.639025201698703</v>
+        <v>6.776544793899852</v>
       </c>
       <c r="D187">
-        <v>0.2459836151732738</v>
+        <v>1.196297928859147</v>
       </c>
       <c r="E187">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F187">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G187" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5414,22 +5417,22 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C188">
-        <v>6.776544793899852</v>
+        <v>6.902766210116231</v>
       </c>
       <c r="D188">
-        <v>1.196297928859147</v>
+        <v>0.2307483939835204</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F188">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5437,22 +5440,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>6.902766210116231</v>
+        <v>7.024192511206796</v>
       </c>
       <c r="D189">
-        <v>0.2307483939835204</v>
+        <v>0.06129791768580434</v>
       </c>
       <c r="E189">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F189">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G189" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5460,22 +5463,22 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C190">
-        <v>7.024192511206796</v>
+        <v>7.045107080369214</v>
       </c>
       <c r="D190">
-        <v>0.06129791768580434</v>
+        <v>0.2528422100700992</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F190">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G190" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5483,22 +5486,22 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C191">
-        <v>7.045107080369214</v>
+        <v>7.047402833555065</v>
       </c>
       <c r="D191">
-        <v>0.2528422100700992</v>
+        <v>0.1638003094644677</v>
       </c>
       <c r="E191">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F191">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G191" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5506,22 +5509,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C192">
-        <v>7.047402833555065</v>
+        <v>7.306219234570738</v>
       </c>
       <c r="D192">
-        <v>0.1638003094644677</v>
+        <v>0.1641365994151953</v>
       </c>
       <c r="E192">
         <v>12</v>
       </c>
       <c r="F192">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G192" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5529,22 +5532,22 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C193">
-        <v>7.306219234570738</v>
+        <v>7.666501812604858</v>
       </c>
       <c r="D193">
-        <v>0.1641365994151953</v>
+        <v>0.2781810085046772</v>
       </c>
       <c r="E193">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5552,22 +5555,22 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C194">
-        <v>7.666501812604858</v>
+        <v>7.674839372752658</v>
       </c>
       <c r="D194">
-        <v>0.2781810085046772</v>
+        <v>0.3406648631683089</v>
       </c>
       <c r="E194">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F194">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G194" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5575,22 +5578,22 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C195">
-        <v>7.674839372752658</v>
+        <v>7.697930499183316</v>
       </c>
       <c r="D195">
-        <v>0.3406648631683089</v>
+        <v>0.7497467453382809</v>
       </c>
       <c r="E195">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F195">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5598,22 +5601,22 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>7.697930499183316</v>
+        <v>8.014541461678814</v>
       </c>
       <c r="D196">
-        <v>0.7497467453382809</v>
+        <v>1.750028830881315</v>
       </c>
       <c r="E196">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G196" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5621,22 +5624,22 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197">
-        <v>8.014541461678814</v>
+        <v>8.215371450191439</v>
       </c>
       <c r="D197">
-        <v>1.750028830881315</v>
+        <v>2.164288617781968</v>
       </c>
       <c r="E197">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F197">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G197" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5644,22 +5647,22 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C198">
-        <v>8.215371450191439</v>
+        <v>8.24075437505458</v>
       </c>
       <c r="D198">
-        <v>2.164288617781968</v>
+        <v>0.9140237136708393</v>
       </c>
       <c r="E198">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F198">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5667,22 +5670,22 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C199">
-        <v>8.24075437505458</v>
+        <v>8.28084468962726</v>
       </c>
       <c r="D199">
-        <v>0.9140237136708393</v>
+        <v>0.5791576003189924</v>
       </c>
       <c r="E199">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5690,22 +5693,22 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C200">
-        <v>8.28084468962726</v>
+        <v>8.425583642502767</v>
       </c>
       <c r="D200">
-        <v>0.5791576003189924</v>
+        <v>1.781170479239582</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F200">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5713,22 +5716,22 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C201">
-        <v>8.425583642502767</v>
+        <v>8.487441298355279</v>
       </c>
       <c r="D201">
-        <v>1.781170479239582</v>
+        <v>0.4773596367817988</v>
       </c>
       <c r="E201">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F201">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G201" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5736,22 +5739,22 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C202">
-        <v>8.487441298355279</v>
+        <v>8.683260336740826</v>
       </c>
       <c r="D202">
-        <v>0.4773596367817988</v>
+        <v>0.894372461152251</v>
       </c>
       <c r="E202">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F202">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G202" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5759,22 +5762,22 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C203">
-        <v>8.683260336740826</v>
+        <v>8.694664860012896</v>
       </c>
       <c r="D203">
-        <v>0.894372461152251</v>
+        <v>0.1423369780551031</v>
       </c>
       <c r="E203">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F203">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5782,22 +5785,22 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>8.694664860012896</v>
+        <v>8.971653196694806</v>
       </c>
       <c r="D204">
-        <v>0.1423369780551031</v>
+        <v>0.2197446130666454</v>
       </c>
       <c r="E204">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F204">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5805,22 +5808,22 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205">
-        <v>8.971653196694806</v>
+        <v>9.212928115878615</v>
       </c>
       <c r="D205">
-        <v>0.2197446130666454</v>
+        <v>0.2710473496287047</v>
       </c>
       <c r="E205">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F205">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5828,22 +5831,22 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C206">
-        <v>9.212928115878615</v>
+        <v>9.665854398566587</v>
       </c>
       <c r="D206">
-        <v>0.2710473496287047</v>
+        <v>0.2156310008014861</v>
       </c>
       <c r="E206">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F206">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5851,22 +5854,22 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>9.665854398566587</v>
+        <v>9.730405066111286</v>
       </c>
       <c r="D207">
-        <v>0.2156310008014861</v>
+        <v>0.5005474792902195</v>
       </c>
       <c r="E207">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F207">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5874,22 +5877,22 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C208">
-        <v>9.730405066111286</v>
+        <v>9.860644933067174</v>
       </c>
       <c r="D208">
-        <v>0.5005474792902195</v>
+        <v>0.3348429470358636</v>
       </c>
       <c r="E208">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F208">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5897,22 +5900,22 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C209">
-        <v>9.860644933067174</v>
+        <v>9.867499353019346</v>
       </c>
       <c r="D209">
-        <v>0.3348429470358636</v>
+        <v>1.469016563579489</v>
       </c>
       <c r="E209">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F209">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G209" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5920,22 +5923,22 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C210">
-        <v>9.867499353019346</v>
+        <v>10.27279593906726</v>
       </c>
       <c r="D210">
-        <v>1.469016563579489</v>
+        <v>1.006082862670761</v>
       </c>
       <c r="E210">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F210">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G210" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5943,22 +5946,22 @@
         <v>209</v>
       </c>
       <c r="B211">
+        <v>14</v>
+      </c>
+      <c r="C211">
+        <v>10.43101101388295</v>
+      </c>
+      <c r="D211">
+        <v>1.234703462869555</v>
+      </c>
+      <c r="E211">
         <v>12</v>
       </c>
-      <c r="C211">
-        <v>10.27279593906726</v>
-      </c>
-      <c r="D211">
-        <v>1.006082862670761</v>
-      </c>
-      <c r="E211">
-        <v>2</v>
-      </c>
       <c r="F211">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5966,22 +5969,22 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C212">
-        <v>10.43101101388295</v>
+        <v>10.55866269503734</v>
       </c>
       <c r="D212">
-        <v>1.234703462869555</v>
+        <v>1.059719793007365</v>
       </c>
       <c r="E212">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G212" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5989,22 +5992,22 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C213">
-        <v>10.55866269503734</v>
+        <v>10.76136438637008</v>
       </c>
       <c r="D213">
-        <v>1.059719793007365</v>
+        <v>0.6174813066467367</v>
       </c>
       <c r="E213">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F213">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6012,22 +6015,22 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C214">
-        <v>10.76136438637008</v>
+        <v>11.14647850854518</v>
       </c>
       <c r="D214">
-        <v>0.6174813066467367</v>
+        <v>1.089901999834367</v>
       </c>
       <c r="E214">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F214">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G214" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6035,22 +6038,22 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215">
-        <v>11.14647850854518</v>
+        <v>13.98918241156527</v>
       </c>
       <c r="D215">
-        <v>1.089901999834367</v>
+        <v>5.855854877402959</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F215">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G215" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6058,22 +6061,22 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C216">
-        <v>13.98918241156527</v>
+        <v>14.03161907304401</v>
       </c>
       <c r="D216">
-        <v>5.855854877402959</v>
+        <v>3.555697107517152</v>
       </c>
       <c r="E216">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F216">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6081,22 +6084,22 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>14.03161907304401</v>
+        <v>16.59770942152543</v>
       </c>
       <c r="D217">
-        <v>3.555697107517152</v>
+        <v>19.61404012240849</v>
       </c>
       <c r="E217">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6104,22 +6107,22 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C218">
-        <v>16.59770942152543</v>
+        <v>17.35120601987143</v>
       </c>
       <c r="D218">
-        <v>19.61404012240849</v>
+        <v>0.9096857077506745</v>
       </c>
       <c r="E218">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F218">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G218" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6127,22 +6130,22 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C219">
-        <v>17.35120601987143</v>
+        <v>17.83293989620176</v>
       </c>
       <c r="D219">
-        <v>0.9096857077506745</v>
+        <v>11.65684940852695</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F219">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6150,45 +6153,22 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C220">
-        <v>17.83293989620176</v>
+        <v>19.61204616111733</v>
       </c>
       <c r="D220">
-        <v>11.65684940852695</v>
+        <v>4.743092011963404</v>
       </c>
       <c r="E220">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F220">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G220" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>14</v>
-      </c>
-      <c r="C221">
-        <v>19.61204616111733</v>
-      </c>
-      <c r="D221">
-        <v>4.743092011963404</v>
-      </c>
-      <c r="E221">
-        <v>33</v>
-      </c>
-      <c r="F221">
-        <v>26</v>
-      </c>
-      <c r="G221" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6209,13 +6189,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6223,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E2">
         <v>0.1993996957667545</v>
@@ -6240,13 +6220,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0.2004797291658349</v>
@@ -6257,13 +6237,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0.2069368734828525</v>
@@ -6274,13 +6254,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E5">
         <v>0.2175791114667056</v>
@@ -6291,13 +6271,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6">
         <v>0.2224066611834363</v>
@@ -6308,13 +6288,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E7">
         <v>0.2229895647176857</v>
@@ -6325,13 +6305,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E8">
         <v>0.2339192039749609</v>
@@ -6342,13 +6322,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9">
         <v>0.2407155020443252</v>
@@ -6359,13 +6339,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E10">
         <v>0.2594411962663014</v>
@@ -6376,13 +6356,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11">
         <v>0.2595985330271336</v>
@@ -6393,13 +6373,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>0.2758361759739756</v>
@@ -6410,13 +6390,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E13">
         <v>0.2766376631204631</v>
@@ -6427,13 +6407,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E14">
         <v>0.2788909154324345</v>
@@ -6444,13 +6424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E15">
         <v>0.2968990416942724</v>
@@ -6461,13 +6441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E16">
         <v>0.309772583746858</v>
@@ -6478,13 +6458,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E17">
         <v>0.324105132144098</v>
@@ -6495,13 +6475,13 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18">
         <v>0.362876435155156</v>
@@ -6509,16 +6489,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E19">
         <v>0.3941494948319081</v>
@@ -6529,13 +6509,13 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E20">
         <v>0.4117188541327191</v>
@@ -6543,16 +6523,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <v>1.295659671631406</v>
@@ -6560,16 +6540,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E22">
         <v>1.36706283095584</v>
@@ -6577,16 +6557,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E23">
         <v>1.610776256004674</v>
@@ -6594,16 +6574,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E24">
         <v>2.167267059718129</v>
@@ -6611,16 +6591,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E25">
         <v>2.350201670869566</v>
@@ -6628,16 +6608,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E26">
         <v>2.634445448250733</v>
@@ -6645,16 +6625,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E27">
         <v>3.604658384133212</v>
@@ -6675,263 +6655,263 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6947,420 +6927,420 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>13</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>13</v>
       </c>
       <c r="C51">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>14</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>14</v>
       </c>
       <c r="C53">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>15</v>
       </c>
       <c r="C54">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7368,7 +7348,7 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>16</v>
@@ -7376,167 +7356,167 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>22</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>23</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B73">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>26</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <v>27</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>28</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>29</v>
       </c>
       <c r="C79">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
